--- a/teaching/traditional_assets/database/data/estonia/estonia_real_estate_general_diversified.xlsx
+++ b/teaching/traditional_assets/database/data/estonia/estonia_real_estate_general_diversified.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="tlse_arc1t" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,43 +593,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.12</v>
+        <v>0.00384</v>
+      </c>
+      <c r="E2">
+        <v>-0.154</v>
       </c>
       <c r="G2">
-        <v>-0.034640522875817</v>
+        <v>0.06337209302325582</v>
       </c>
       <c r="H2">
-        <v>-0.034640522875817</v>
+        <v>0.06337209302325582</v>
       </c>
       <c r="I2">
-        <v>-0.1061794599746536</v>
+        <v>0.07616279069767443</v>
       </c>
       <c r="J2">
-        <v>-0.1061794599746536</v>
+        <v>0.07616279069767443</v>
       </c>
       <c r="K2">
-        <v>-0.702</v>
+        <v>0.671</v>
       </c>
       <c r="L2">
-        <v>-0.2294117647058823</v>
+        <v>0.03901162790697675</v>
       </c>
       <c r="M2">
-        <v>0.098</v>
+        <v>0.423</v>
       </c>
       <c r="N2">
-        <v>0.008521739130434783</v>
+        <v>0.03180451127819549</v>
       </c>
       <c r="O2">
-        <v>-0.1396011396011396</v>
+        <v>0.6304023845007451</v>
       </c>
       <c r="P2">
-        <v>0.098</v>
+        <v>0.423</v>
       </c>
       <c r="Q2">
-        <v>0.008521739130434783</v>
+        <v>0.03180451127819549</v>
       </c>
       <c r="R2">
-        <v>-0.1396011396011396</v>
+        <v>0.6304023845007451</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -636,73 +641,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.98</v>
+        <v>0.726</v>
       </c>
       <c r="V2">
-        <v>0.08521739130434783</v>
+        <v>0.05458646616541353</v>
       </c>
       <c r="W2">
-        <v>-0.04618421052631579</v>
+        <v>0.04933823529411765</v>
       </c>
       <c r="X2">
-        <v>0.1125544737015407</v>
+        <v>0.07787041011182864</v>
       </c>
       <c r="Y2">
-        <v>-0.1587386842278565</v>
+        <v>-0.028532174817711</v>
       </c>
       <c r="Z2">
-        <v>0.109112125709922</v>
+        <v>0.511600237953599</v>
       </c>
       <c r="AA2">
-        <v>-0.01158546658456604</v>
+        <v>0.03896490184414039</v>
       </c>
       <c r="AB2">
-        <v>0.05737641758990867</v>
+        <v>0.04424807115137802</v>
       </c>
       <c r="AC2">
-        <v>-0.06896188417447471</v>
+        <v>-0.005283169307237635</v>
       </c>
       <c r="AD2">
-        <v>21</v>
+        <v>18.7</v>
       </c>
       <c r="AE2">
-        <v>0.07454573761220082</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>21.0745457376122</v>
+        <v>18.7</v>
       </c>
       <c r="AG2">
-        <v>20.0945457376122</v>
+        <v>17.974</v>
       </c>
       <c r="AH2">
-        <v>0.6469636110160234</v>
+        <v>0.584375</v>
       </c>
       <c r="AI2">
-        <v>0.6077814514741343</v>
+        <v>0.5516224188790561</v>
       </c>
       <c r="AJ2">
-        <v>0.6360131240529389</v>
+        <v>0.574726609963548</v>
       </c>
       <c r="AK2">
-        <v>0.596373843235443</v>
+        <v>0.5418098510882016</v>
       </c>
       <c r="AL2">
-        <v>0.469</v>
+        <v>0.537</v>
       </c>
       <c r="AM2">
-        <v>0.469</v>
+        <v>0.537</v>
       </c>
       <c r="AN2">
-        <v>-88.60759493670886</v>
+        <v>14.38461538461538</v>
       </c>
       <c r="AO2">
-        <v>-0.7782515991471216</v>
+        <v>2.439478584729981</v>
       </c>
       <c r="AP2">
-        <v>-84.78711281692912</v>
+        <v>13.82615384615385</v>
       </c>
       <c r="AQ2">
-        <v>-0.7782515991471216</v>
+        <v>2.439478584729981</v>
       </c>
     </row>
     <row r="3">
@@ -722,43 +727,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.12</v>
+        <v>0.00384</v>
+      </c>
+      <c r="E3">
+        <v>-0.154</v>
       </c>
       <c r="G3">
-        <v>-0.034640522875817</v>
+        <v>0.06337209302325582</v>
       </c>
       <c r="H3">
-        <v>-0.034640522875817</v>
+        <v>0.06337209302325582</v>
       </c>
       <c r="I3">
-        <v>-0.1061794599746536</v>
+        <v>0.07616279069767443</v>
       </c>
       <c r="J3">
-        <v>-0.1061794599746536</v>
+        <v>0.07616279069767443</v>
       </c>
       <c r="K3">
-        <v>-0.702</v>
+        <v>0.671</v>
       </c>
       <c r="L3">
-        <v>-0.2294117647058823</v>
+        <v>0.03901162790697675</v>
       </c>
       <c r="M3">
-        <v>0.098</v>
+        <v>0.423</v>
       </c>
       <c r="N3">
-        <v>0.008521739130434783</v>
+        <v>0.03180451127819549</v>
       </c>
       <c r="O3">
-        <v>-0.1396011396011396</v>
+        <v>0.6304023845007451</v>
       </c>
       <c r="P3">
-        <v>0.098</v>
+        <v>0.423</v>
       </c>
       <c r="Q3">
-        <v>0.008521739130434783</v>
+        <v>0.03180451127819549</v>
       </c>
       <c r="R3">
-        <v>-0.1396011396011396</v>
+        <v>0.6304023845007451</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,73 +775,8791 @@
         <v>0</v>
       </c>
       <c r="U3">
+        <v>0.726</v>
+      </c>
+      <c r="V3">
+        <v>0.05458646616541353</v>
+      </c>
+      <c r="W3">
+        <v>0.04933823529411765</v>
+      </c>
+      <c r="X3">
+        <v>0.07787041011182864</v>
+      </c>
+      <c r="Y3">
+        <v>-0.028532174817711</v>
+      </c>
+      <c r="Z3">
+        <v>0.511600237953599</v>
+      </c>
+      <c r="AA3">
+        <v>0.03896490184414039</v>
+      </c>
+      <c r="AB3">
+        <v>0.04424807115137802</v>
+      </c>
+      <c r="AC3">
+        <v>-0.005283169307237635</v>
+      </c>
+      <c r="AD3">
+        <v>18.7</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>18.7</v>
+      </c>
+      <c r="AG3">
+        <v>17.974</v>
+      </c>
+      <c r="AH3">
+        <v>0.584375</v>
+      </c>
+      <c r="AI3">
+        <v>0.5516224188790561</v>
+      </c>
+      <c r="AJ3">
+        <v>0.574726609963548</v>
+      </c>
+      <c r="AK3">
+        <v>0.5418098510882016</v>
+      </c>
+      <c r="AL3">
+        <v>0.537</v>
+      </c>
+      <c r="AM3">
+        <v>0.537</v>
+      </c>
+      <c r="AN3">
+        <v>14.38461538461538</v>
+      </c>
+      <c r="AO3">
+        <v>2.439478584729981</v>
+      </c>
+      <c r="AP3">
+        <v>13.82615384615385</v>
+      </c>
+      <c r="AQ3">
+        <v>2.439478584729981</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Arco Vara AS (TLSE:ARC1T)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TLSE:ARC1T</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Real Estate (General/Diversified)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.584375</v>
+      </c>
+      <c r="F2">
+        <v>0.18</v>
+      </c>
+      <c r="G2">
+        <v>13.3</v>
+      </c>
+      <c r="H2">
+        <v>29.3702772957014</v>
+      </c>
+      <c r="I2">
+        <v>31.274</v>
+      </c>
+      <c r="J2">
+        <v>34.4042772957014</v>
+      </c>
+      <c r="K2">
+        <v>18.7</v>
+      </c>
+      <c r="L2">
+        <v>5.76</v>
+      </c>
+      <c r="M2">
+        <v>0.044248071151378</v>
+      </c>
+      <c r="N2">
+        <v>0.0410683167065031</v>
+      </c>
+      <c r="O2">
+        <v>0.0203348568105228</v>
+      </c>
+      <c r="P2">
+        <v>0.01296</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>B2/B</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0778704101118286</v>
+      </c>
+      <c r="T2">
+        <v>0.0472384350079306</v>
+      </c>
+      <c r="U2">
+        <v>1.26946797420105</v>
+      </c>
+      <c r="V2">
+        <v>0.702367510349306</v>
+      </c>
+      <c r="W2">
+        <v>14.0389231824417</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>13.3</v>
+      </c>
+      <c r="AB2">
+        <v>0.05401507679229468</v>
+      </c>
+      <c r="AC2">
+        <v>0.02541857101315345</v>
+      </c>
+      <c r="AD2">
+        <v>0.2</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1.3</v>
+      </c>
+      <c r="AH2">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="AI2">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="AJ2">
+        <v>18.7</v>
+      </c>
+      <c r="AK2">
+        <v>18.7</v>
+      </c>
+      <c r="AL2">
+        <v>0.537</v>
+      </c>
+      <c r="AM2">
+        <v>18.7</v>
+      </c>
+      <c r="AN2">
+        <v>0.726</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.04157128289056336</v>
+      </c>
+      <c r="C2">
+        <v>34.59406718823679</v>
+      </c>
+      <c r="D2">
+        <v>33.86806718823679</v>
+      </c>
+      <c r="E2">
+        <v>-18.7</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.726</v>
+      </c>
+      <c r="H2">
+        <v>13.3</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1.3</v>
+      </c>
+      <c r="K2">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L2">
+        <v>1.31</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.31</v>
+      </c>
+      <c r="O2">
+        <v>0.262</v>
+      </c>
+      <c r="P2">
+        <v>1.048</v>
+      </c>
+      <c r="Q2">
+        <v>1.038</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.04157128289056336</v>
+      </c>
+      <c r="T2">
+        <v>0.5974495419983723</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.2</v>
+      </c>
+      <c r="W2">
+        <v>0.01296</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.04154334032478224</v>
+      </c>
+      <c r="C3">
+        <v>34.30341776686029</v>
+      </c>
+      <c r="D3">
+        <v>33.89741776686029</v>
+      </c>
+      <c r="E3">
+        <v>-18.38</v>
+      </c>
+      <c r="F3">
+        <v>0.32</v>
+      </c>
+      <c r="G3">
+        <v>0.726</v>
+      </c>
+      <c r="H3">
+        <v>13.3</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1.3</v>
+      </c>
+      <c r="K3">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L3">
+        <v>1.31</v>
+      </c>
+      <c r="M3">
+        <v>0.005184</v>
+      </c>
+      <c r="N3">
+        <v>1.304816</v>
+      </c>
+      <c r="O3">
+        <v>0.2609632</v>
+      </c>
+      <c r="P3">
+        <v>1.0438528</v>
+      </c>
+      <c r="Q3">
+        <v>1.0338528</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.04183206093412348</v>
+      </c>
+      <c r="T3">
+        <v>0.6022774170852279</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.2</v>
+      </c>
+      <c r="W3">
+        <v>0.01296</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>252.7006172839506</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.04151539775900111</v>
+      </c>
+      <c r="C4">
+        <v>34.01281926091746</v>
+      </c>
+      <c r="D4">
+        <v>33.92681926091746</v>
+      </c>
+      <c r="E4">
+        <v>-18.06</v>
+      </c>
+      <c r="F4">
+        <v>0.64</v>
+      </c>
+      <c r="G4">
+        <v>0.726</v>
+      </c>
+      <c r="H4">
+        <v>13.3</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1.3</v>
+      </c>
+      <c r="K4">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L4">
+        <v>1.31</v>
+      </c>
+      <c r="M4">
+        <v>0.010368</v>
+      </c>
+      <c r="N4">
+        <v>1.299632</v>
+      </c>
+      <c r="O4">
+        <v>0.2599264000000001</v>
+      </c>
+      <c r="P4">
+        <v>1.0397056</v>
+      </c>
+      <c r="Q4">
+        <v>1.0297056</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.04209816097857257</v>
+      </c>
+      <c r="T4">
+        <v>0.6072038202350805</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.2</v>
+      </c>
+      <c r="W4">
+        <v>0.01296</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>126.3503086419753</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.04148745519321998</v>
+      </c>
+      <c r="C5">
+        <v>33.7222718030104</v>
+      </c>
+      <c r="D5">
+        <v>33.9562718030104</v>
+      </c>
+      <c r="E5">
+        <v>-17.74</v>
+      </c>
+      <c r="F5">
+        <v>0.96</v>
+      </c>
+      <c r="G5">
+        <v>0.726</v>
+      </c>
+      <c r="H5">
+        <v>13.3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1.3</v>
+      </c>
+      <c r="K5">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L5">
+        <v>1.31</v>
+      </c>
+      <c r="M5">
+        <v>0.015552</v>
+      </c>
+      <c r="N5">
+        <v>1.294448</v>
+      </c>
+      <c r="O5">
+        <v>0.2588896</v>
+      </c>
+      <c r="P5">
+        <v>1.0355584</v>
+      </c>
+      <c r="Q5">
+        <v>1.0255584</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.04236974762187627</v>
+      </c>
+      <c r="T5">
+        <v>0.6122317987076104</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.2</v>
+      </c>
+      <c r="W5">
+        <v>0.01296</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>84.23353909465021</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.04145951262743885</v>
+      </c>
+      <c r="C6">
+        <v>33.43177552620202</v>
+      </c>
+      <c r="D6">
+        <v>33.98577552620202</v>
+      </c>
+      <c r="E6">
+        <v>-17.42</v>
+      </c>
+      <c r="F6">
+        <v>1.28</v>
+      </c>
+      <c r="G6">
+        <v>0.726</v>
+      </c>
+      <c r="H6">
+        <v>13.3</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1.3</v>
+      </c>
+      <c r="K6">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L6">
+        <v>1.31</v>
+      </c>
+      <c r="M6">
+        <v>0.020736</v>
+      </c>
+      <c r="N6">
+        <v>1.289264</v>
+      </c>
+      <c r="O6">
+        <v>0.2578528</v>
+      </c>
+      <c r="P6">
+        <v>1.0314112</v>
+      </c>
+      <c r="Q6">
+        <v>1.0214112</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.04264699232024881</v>
+      </c>
+      <c r="T6">
+        <v>0.6173645267316514</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.2</v>
+      </c>
+      <c r="W6">
+        <v>0.01296</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>63.17515432098765</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.04143157006165773</v>
+      </c>
+      <c r="C7">
+        <v>33.14133056401814</v>
+      </c>
+      <c r="D7">
+        <v>34.01533056401814</v>
+      </c>
+      <c r="E7">
+        <v>-17.1</v>
+      </c>
+      <c r="F7">
+        <v>1.6</v>
+      </c>
+      <c r="G7">
+        <v>0.726</v>
+      </c>
+      <c r="H7">
+        <v>13.3</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1.3</v>
+      </c>
+      <c r="K7">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L7">
+        <v>1.31</v>
+      </c>
+      <c r="M7">
+        <v>0.02592</v>
+      </c>
+      <c r="N7">
+        <v>1.28408</v>
+      </c>
+      <c r="O7">
+        <v>0.256816</v>
+      </c>
+      <c r="P7">
+        <v>1.027264</v>
+      </c>
+      <c r="Q7">
+        <v>1.017264</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.0429300737491134</v>
+      </c>
+      <c r="T7">
+        <v>0.6226053121877774</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.2</v>
+      </c>
+      <c r="W7">
+        <v>0.01296</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>50.54012345679013</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.04140362749587661</v>
+      </c>
+      <c r="C8">
+        <v>32.85093705044942</v>
+      </c>
+      <c r="D8">
+        <v>34.04493705044942</v>
+      </c>
+      <c r="E8">
+        <v>-16.78</v>
+      </c>
+      <c r="F8">
+        <v>1.92</v>
+      </c>
+      <c r="G8">
+        <v>0.726</v>
+      </c>
+      <c r="H8">
+        <v>13.3</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1.3</v>
+      </c>
+      <c r="K8">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L8">
+        <v>1.31</v>
+      </c>
+      <c r="M8">
+        <v>0.031104</v>
+      </c>
+      <c r="N8">
+        <v>1.278896</v>
+      </c>
+      <c r="O8">
+        <v>0.2557792</v>
+      </c>
+      <c r="P8">
+        <v>1.0231168</v>
+      </c>
+      <c r="Q8">
+        <v>1.0131168</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.04321917818710277</v>
+      </c>
+      <c r="T8">
+        <v>0.6279576037174381</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.2</v>
+      </c>
+      <c r="W8">
+        <v>0.01296</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>42.11676954732511</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.04137568493009548</v>
+      </c>
+      <c r="C9">
+        <v>32.56059511995345</v>
+      </c>
+      <c r="D9">
+        <v>34.07459511995346</v>
+      </c>
+      <c r="E9">
+        <v>-16.46</v>
+      </c>
+      <c r="F9">
+        <v>2.24</v>
+      </c>
+      <c r="G9">
+        <v>0.726</v>
+      </c>
+      <c r="H9">
+        <v>13.3</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1.3</v>
+      </c>
+      <c r="K9">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L9">
+        <v>1.31</v>
+      </c>
+      <c r="M9">
+        <v>0.036288</v>
+      </c>
+      <c r="N9">
+        <v>1.273712</v>
+      </c>
+      <c r="O9">
+        <v>0.2547424</v>
+      </c>
+      <c r="P9">
+        <v>1.0189696</v>
+      </c>
+      <c r="Q9">
+        <v>1.0089696</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.04351449992483386</v>
+      </c>
+      <c r="T9">
+        <v>0.6334249982907475</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.2</v>
+      </c>
+      <c r="W9">
+        <v>0.01296</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>36.10008818342151</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.04134774236431436</v>
+      </c>
+      <c r="C10">
+        <v>32.27030490745677</v>
+      </c>
+      <c r="D10">
+        <v>34.10430490745677</v>
+      </c>
+      <c r="E10">
+        <v>-16.14</v>
+      </c>
+      <c r="F10">
+        <v>2.56</v>
+      </c>
+      <c r="G10">
+        <v>0.726</v>
+      </c>
+      <c r="H10">
+        <v>13.3</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1.3</v>
+      </c>
+      <c r="K10">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L10">
+        <v>1.31</v>
+      </c>
+      <c r="M10">
+        <v>0.041472</v>
+      </c>
+      <c r="N10">
+        <v>1.268528</v>
+      </c>
+      <c r="O10">
+        <v>0.2537056</v>
+      </c>
+      <c r="P10">
+        <v>1.0148224</v>
+      </c>
+      <c r="Q10">
+        <v>1.0048224</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.04381624170034169</v>
+      </c>
+      <c r="T10">
+        <v>0.6390112492678243</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.2</v>
+      </c>
+      <c r="W10">
+        <v>0.01296</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>31.58757716049383</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.04131979979853323</v>
+      </c>
+      <c r="C11">
+        <v>31.98006654835684</v>
+      </c>
+      <c r="D11">
+        <v>34.13406654835684</v>
+      </c>
+      <c r="E11">
+        <v>-15.82</v>
+      </c>
+      <c r="F11">
+        <v>2.88</v>
+      </c>
+      <c r="G11">
+        <v>0.726</v>
+      </c>
+      <c r="H11">
+        <v>13.3</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1.3</v>
+      </c>
+      <c r="K11">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L11">
+        <v>1.31</v>
+      </c>
+      <c r="M11">
+        <v>0.046656</v>
+      </c>
+      <c r="N11">
+        <v>1.263344</v>
+      </c>
+      <c r="O11">
+        <v>0.2526688</v>
+      </c>
+      <c r="P11">
+        <v>1.0106752</v>
+      </c>
+      <c r="Q11">
+        <v>1.0006752</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.04412461516322333</v>
+      </c>
+      <c r="T11">
+        <v>0.6447202749916501</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.2</v>
+      </c>
+      <c r="W11">
+        <v>0.01296</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>28.07784636488341</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.04129185723275211</v>
+      </c>
+      <c r="C12">
+        <v>31.68988017852421</v>
+      </c>
+      <c r="D12">
+        <v>34.16388017852421</v>
+      </c>
+      <c r="E12">
+        <v>-15.5</v>
+      </c>
+      <c r="F12">
+        <v>3.2</v>
+      </c>
+      <c r="G12">
+        <v>0.726</v>
+      </c>
+      <c r="H12">
+        <v>13.3</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1.3</v>
+      </c>
+      <c r="K12">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L12">
+        <v>1.31</v>
+      </c>
+      <c r="M12">
+        <v>0.05184</v>
+      </c>
+      <c r="N12">
+        <v>1.25816</v>
+      </c>
+      <c r="O12">
+        <v>0.251632</v>
+      </c>
+      <c r="P12">
+        <v>1.006528</v>
+      </c>
+      <c r="Q12">
+        <v>0.9965280000000001</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.04443984136972456</v>
+      </c>
+      <c r="T12">
+        <v>0.6505561679537832</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.2</v>
+      </c>
+      <c r="W12">
+        <v>0.01296</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>25.27006172839507</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.04126391466697097</v>
+      </c>
+      <c r="C13">
+        <v>31.39974593430455</v>
+      </c>
+      <c r="D13">
+        <v>34.19374593430455</v>
+      </c>
+      <c r="E13">
+        <v>-15.18</v>
+      </c>
+      <c r="F13">
+        <v>3.52</v>
+      </c>
+      <c r="G13">
+        <v>0.726</v>
+      </c>
+      <c r="H13">
+        <v>13.3</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1.3</v>
+      </c>
+      <c r="K13">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L13">
+        <v>1.31</v>
+      </c>
+      <c r="M13">
+        <v>0.057024</v>
+      </c>
+      <c r="N13">
+        <v>1.252976</v>
+      </c>
+      <c r="O13">
+        <v>0.2505952</v>
+      </c>
+      <c r="P13">
+        <v>1.0023808</v>
+      </c>
+      <c r="Q13">
+        <v>0.9923808000000001</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.04476215131120334</v>
+      </c>
+      <c r="T13">
+        <v>0.6565232045779866</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.2</v>
+      </c>
+      <c r="W13">
+        <v>0.01296</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>22.97278338945006</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.04123597210118985</v>
+      </c>
+      <c r="C14">
+        <v>31.10966395252064</v>
+      </c>
+      <c r="D14">
+        <v>34.22366395252065</v>
+      </c>
+      <c r="E14">
+        <v>-14.86</v>
+      </c>
+      <c r="F14">
+        <v>3.84</v>
+      </c>
+      <c r="G14">
+        <v>0.726</v>
+      </c>
+      <c r="H14">
+        <v>13.3</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1.3</v>
+      </c>
+      <c r="K14">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L14">
+        <v>1.31</v>
+      </c>
+      <c r="M14">
+        <v>0.06220799999999999</v>
+      </c>
+      <c r="N14">
+        <v>1.247792</v>
+      </c>
+      <c r="O14">
+        <v>0.2495584</v>
+      </c>
+      <c r="P14">
+        <v>0.9982336000000001</v>
+      </c>
+      <c r="Q14">
+        <v>0.9882336</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.04509178647862483</v>
+      </c>
+      <c r="T14">
+        <v>0.662625855670922</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.2</v>
+      </c>
+      <c r="W14">
+        <v>0.01296</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>21.05838477366255</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.04120802953540871</v>
+      </c>
+      <c r="C15">
+        <v>30.81963437047465</v>
+      </c>
+      <c r="D15">
+        <v>34.25363437047465</v>
+      </c>
+      <c r="E15">
+        <v>-14.54</v>
+      </c>
+      <c r="F15">
+        <v>4.16</v>
+      </c>
+      <c r="G15">
+        <v>0.726</v>
+      </c>
+      <c r="H15">
+        <v>13.3</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1.3</v>
+      </c>
+      <c r="K15">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L15">
+        <v>1.31</v>
+      </c>
+      <c r="M15">
+        <v>0.06739199999999999</v>
+      </c>
+      <c r="N15">
+        <v>1.242608</v>
+      </c>
+      <c r="O15">
+        <v>0.2485216</v>
+      </c>
+      <c r="P15">
+        <v>0.9940864000000001</v>
+      </c>
+      <c r="Q15">
+        <v>0.9840864000000001</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.04542899946598702</v>
+      </c>
+      <c r="T15">
+        <v>0.66886879759358</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.2</v>
+      </c>
+      <c r="W15">
+        <v>0.01296</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>19.43850902184236</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.04118008696962759</v>
+      </c>
+      <c r="C16">
+        <v>30.52965732595</v>
+      </c>
+      <c r="D16">
+        <v>34.28365732595</v>
+      </c>
+      <c r="E16">
+        <v>-14.22</v>
+      </c>
+      <c r="F16">
+        <v>4.48</v>
+      </c>
+      <c r="G16">
+        <v>0.726</v>
+      </c>
+      <c r="H16">
+        <v>13.3</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1.3</v>
+      </c>
+      <c r="K16">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L16">
+        <v>1.31</v>
+      </c>
+      <c r="M16">
+        <v>0.072576</v>
+      </c>
+      <c r="N16">
+        <v>1.237424</v>
+      </c>
+      <c r="O16">
+        <v>0.2474848</v>
+      </c>
+      <c r="P16">
+        <v>0.9899392</v>
+      </c>
+      <c r="Q16">
+        <v>0.9799392</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.04577405461584604</v>
+      </c>
+      <c r="T16">
+        <v>0.6752569242121138</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.2</v>
+      </c>
+      <c r="W16">
+        <v>0.01296</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>18.05004409171076</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.04115214440384646</v>
+      </c>
+      <c r="C17">
+        <v>30.23973295721371</v>
+      </c>
+      <c r="D17">
+        <v>34.31373295721371</v>
+      </c>
+      <c r="E17">
+        <v>-13.9</v>
+      </c>
+      <c r="F17">
+        <v>4.8</v>
+      </c>
+      <c r="G17">
+        <v>0.726</v>
+      </c>
+      <c r="H17">
+        <v>13.3</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1.3</v>
+      </c>
+      <c r="K17">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L17">
+        <v>1.31</v>
+      </c>
+      <c r="M17">
+        <v>0.07776</v>
+      </c>
+      <c r="N17">
+        <v>1.23224</v>
+      </c>
+      <c r="O17">
+        <v>0.246448</v>
+      </c>
+      <c r="P17">
+        <v>0.985792</v>
+      </c>
+      <c r="Q17">
+        <v>0.975792</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.0461272287104076</v>
+      </c>
+      <c r="T17">
+        <v>0.6817953596922601</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.2</v>
+      </c>
+      <c r="W17">
+        <v>0.01296</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>16.84670781893004</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.04112420183806534</v>
+      </c>
+      <c r="C18">
+        <v>29.9498614030183</v>
+      </c>
+      <c r="D18">
+        <v>34.3438614030183</v>
+      </c>
+      <c r="E18">
+        <v>-13.58</v>
+      </c>
+      <c r="F18">
+        <v>5.12</v>
+      </c>
+      <c r="G18">
+        <v>0.726</v>
+      </c>
+      <c r="H18">
+        <v>13.3</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1.3</v>
+      </c>
+      <c r="K18">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L18">
+        <v>1.31</v>
+      </c>
+      <c r="M18">
+        <v>0.082944</v>
+      </c>
+      <c r="N18">
+        <v>1.227056</v>
+      </c>
+      <c r="O18">
+        <v>0.2454112000000001</v>
+      </c>
+      <c r="P18">
+        <v>0.9816448000000001</v>
+      </c>
+      <c r="Q18">
+        <v>0.9716448000000001</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.04648881171198255</v>
+      </c>
+      <c r="T18">
+        <v>0.688489472207648</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.2</v>
+      </c>
+      <c r="W18">
+        <v>0.01296</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>15.79378858024691</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.04109625927228421</v>
+      </c>
+      <c r="C19">
+        <v>29.66004280260413</v>
+      </c>
+      <c r="D19">
+        <v>34.37404280260414</v>
+      </c>
+      <c r="E19">
+        <v>-13.26</v>
+      </c>
+      <c r="F19">
+        <v>5.44</v>
+      </c>
+      <c r="G19">
+        <v>0.726</v>
+      </c>
+      <c r="H19">
+        <v>13.3</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1.3</v>
+      </c>
+      <c r="K19">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L19">
+        <v>1.31</v>
+      </c>
+      <c r="M19">
+        <v>0.088128</v>
+      </c>
+      <c r="N19">
+        <v>1.221872</v>
+      </c>
+      <c r="O19">
+        <v>0.2443744</v>
+      </c>
+      <c r="P19">
+        <v>0.9774976000000001</v>
+      </c>
+      <c r="Q19">
+        <v>0.9674976000000001</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.04685910755696893</v>
+      </c>
+      <c r="T19">
+        <v>0.6953448886390694</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.2</v>
+      </c>
+      <c r="W19">
+        <v>0.01296</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>14.86474219317357</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.04106831670650309</v>
+      </c>
+      <c r="C20">
+        <v>29.37027729570142</v>
+      </c>
+      <c r="D20">
+        <v>34.40427729570142</v>
+      </c>
+      <c r="E20">
+        <v>-12.94</v>
+      </c>
+      <c r="F20">
+        <v>5.76</v>
+      </c>
+      <c r="G20">
+        <v>0.726</v>
+      </c>
+      <c r="H20">
+        <v>13.3</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1.3</v>
+      </c>
+      <c r="K20">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L20">
+        <v>1.31</v>
+      </c>
+      <c r="M20">
+        <v>0.09331199999999999</v>
+      </c>
+      <c r="N20">
+        <v>1.216688</v>
+      </c>
+      <c r="O20">
+        <v>0.2433376</v>
+      </c>
+      <c r="P20">
+        <v>0.9733503999999999</v>
+      </c>
+      <c r="Q20">
+        <v>0.9633503999999999</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.04723843500793058</v>
+      </c>
+      <c r="T20">
+        <v>0.7023675103493059</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.2</v>
+      </c>
+      <c r="W20">
+        <v>0.01296</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>14.0389231824417</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.04128357414072197</v>
+      </c>
+      <c r="C21">
+        <v>28.8187279252576</v>
+      </c>
+      <c r="D21">
+        <v>34.1727279252576</v>
+      </c>
+      <c r="E21">
+        <v>-12.62</v>
+      </c>
+      <c r="F21">
+        <v>6.08</v>
+      </c>
+      <c r="G21">
+        <v>0.726</v>
+      </c>
+      <c r="H21">
+        <v>13.3</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1.3</v>
+      </c>
+      <c r="K21">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L21">
+        <v>1.31</v>
+      </c>
+      <c r="M21">
+        <v>0.108224</v>
+      </c>
+      <c r="N21">
+        <v>1.201776</v>
+      </c>
+      <c r="O21">
+        <v>0.2403552</v>
+      </c>
+      <c r="P21">
+        <v>0.9614208</v>
+      </c>
+      <c r="Q21">
+        <v>0.9514208</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.04762712856879255</v>
+      </c>
+      <c r="T21">
+        <v>0.709563530126462</v>
+      </c>
+      <c r="U21">
+        <v>0.0178</v>
+      </c>
+      <c r="V21">
+        <v>0.2</v>
+      </c>
+      <c r="W21">
+        <v>0.01424</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>12.10452395032525</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.04126843157494083</v>
+      </c>
+      <c r="C22">
+        <v>28.51491460552422</v>
+      </c>
+      <c r="D22">
+        <v>34.18891460552422</v>
+      </c>
+      <c r="E22">
+        <v>-12.3</v>
+      </c>
+      <c r="F22">
+        <v>6.4</v>
+      </c>
+      <c r="G22">
+        <v>0.726</v>
+      </c>
+      <c r="H22">
+        <v>13.3</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1.3</v>
+      </c>
+      <c r="K22">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L22">
+        <v>1.31</v>
+      </c>
+      <c r="M22">
+        <v>0.11392</v>
+      </c>
+      <c r="N22">
+        <v>1.19608</v>
+      </c>
+      <c r="O22">
+        <v>0.239216</v>
+      </c>
+      <c r="P22">
+        <v>0.956864</v>
+      </c>
+      <c r="Q22">
+        <v>0.946864</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.04802553946867603</v>
+      </c>
+      <c r="T22">
+        <v>0.7169394503980467</v>
+      </c>
+      <c r="U22">
+        <v>0.0178</v>
+      </c>
+      <c r="V22">
+        <v>0.2</v>
+      </c>
+      <c r="W22">
+        <v>0.01424</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>11.49929775280899</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.0412532890091597</v>
+      </c>
+      <c r="C23">
+        <v>28.21111662742723</v>
+      </c>
+      <c r="D23">
+        <v>34.20511662742723</v>
+      </c>
+      <c r="E23">
+        <v>-11.98</v>
+      </c>
+      <c r="F23">
+        <v>6.72</v>
+      </c>
+      <c r="G23">
+        <v>0.726</v>
+      </c>
+      <c r="H23">
+        <v>13.3</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1.3</v>
+      </c>
+      <c r="K23">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L23">
+        <v>1.31</v>
+      </c>
+      <c r="M23">
+        <v>0.119616</v>
+      </c>
+      <c r="N23">
+        <v>1.190384</v>
+      </c>
+      <c r="O23">
+        <v>0.2380768</v>
+      </c>
+      <c r="P23">
+        <v>0.9523072000000001</v>
+      </c>
+      <c r="Q23">
+        <v>0.9423072000000001</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.04843403672045532</v>
+      </c>
+      <c r="T23">
+        <v>0.7245021028284059</v>
+      </c>
+      <c r="U23">
+        <v>0.0178</v>
+      </c>
+      <c r="V23">
+        <v>0.2</v>
+      </c>
+      <c r="W23">
+        <v>0.01424</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>10.95171214553237</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.04162534644337859</v>
+      </c>
+      <c r="C24">
+        <v>27.497423463091</v>
+      </c>
+      <c r="D24">
+        <v>33.811423463091</v>
+      </c>
+      <c r="E24">
+        <v>-11.66</v>
+      </c>
+      <c r="F24">
+        <v>7.04</v>
+      </c>
+      <c r="G24">
+        <v>0.726</v>
+      </c>
+      <c r="H24">
+        <v>13.3</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1.3</v>
+      </c>
+      <c r="K24">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L24">
+        <v>1.31</v>
+      </c>
+      <c r="M24">
+        <v>0.1408</v>
+      </c>
+      <c r="N24">
+        <v>1.1692</v>
+      </c>
+      <c r="O24">
+        <v>0.23384</v>
+      </c>
+      <c r="P24">
+        <v>0.93536</v>
+      </c>
+      <c r="Q24">
+        <v>0.92536</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.04885300826074178</v>
+      </c>
+      <c r="T24">
+        <v>0.7322586694236461</v>
+      </c>
+      <c r="U24">
+        <v>0.02</v>
+      </c>
+      <c r="V24">
+        <v>0.2</v>
+      </c>
+      <c r="W24">
+        <v>0.016</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>9.303977272727273</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.04162780387759746</v>
+      </c>
+      <c r="C25">
+        <v>27.1748532498677</v>
+      </c>
+      <c r="D25">
+        <v>33.8088532498677</v>
+      </c>
+      <c r="E25">
+        <v>-11.34</v>
+      </c>
+      <c r="F25">
+        <v>7.36</v>
+      </c>
+      <c r="G25">
+        <v>0.726</v>
+      </c>
+      <c r="H25">
+        <v>13.3</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1.3</v>
+      </c>
+      <c r="K25">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L25">
+        <v>1.31</v>
+      </c>
+      <c r="M25">
+        <v>0.1472</v>
+      </c>
+      <c r="N25">
+        <v>1.1628</v>
+      </c>
+      <c r="O25">
+        <v>0.23256</v>
+      </c>
+      <c r="P25">
+        <v>0.9302400000000001</v>
+      </c>
+      <c r="Q25">
+        <v>0.9202400000000001</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.049282862178698</v>
+      </c>
+      <c r="T25">
+        <v>0.7402167052811003</v>
+      </c>
+      <c r="U25">
+        <v>0.02</v>
+      </c>
+      <c r="V25">
+        <v>0.2</v>
+      </c>
+      <c r="W25">
+        <v>0.016</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>8.899456521739131</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.04163026131181632</v>
+      </c>
+      <c r="C26">
+        <v>26.85228342736995</v>
+      </c>
+      <c r="D26">
+        <v>33.80628342736996</v>
+      </c>
+      <c r="E26">
+        <v>-11.02</v>
+      </c>
+      <c r="F26">
+        <v>7.68</v>
+      </c>
+      <c r="G26">
+        <v>0.726</v>
+      </c>
+      <c r="H26">
+        <v>13.3</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1.3</v>
+      </c>
+      <c r="K26">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L26">
+        <v>1.31</v>
+      </c>
+      <c r="M26">
+        <v>0.1536</v>
+      </c>
+      <c r="N26">
+        <v>1.1564</v>
+      </c>
+      <c r="O26">
+        <v>0.23128</v>
+      </c>
+      <c r="P26">
+        <v>0.9251200000000001</v>
+      </c>
+      <c r="Q26">
+        <v>0.91512</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.04972402804186359</v>
+      </c>
+      <c r="T26">
+        <v>0.7483841631348032</v>
+      </c>
+      <c r="U26">
+        <v>0.02</v>
+      </c>
+      <c r="V26">
+        <v>0.2</v>
+      </c>
+      <c r="W26">
+        <v>0.016</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>8.528645833333336</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.0416327187460352</v>
+      </c>
+      <c r="C27">
+        <v>26.52971399550869</v>
+      </c>
+      <c r="D27">
+        <v>33.80371399550869</v>
+      </c>
+      <c r="E27">
+        <v>-10.7</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>0.726</v>
+      </c>
+      <c r="H27">
+        <v>13.3</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1.3</v>
+      </c>
+      <c r="K27">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L27">
+        <v>1.31</v>
+      </c>
+      <c r="M27">
+        <v>0.16</v>
+      </c>
+      <c r="N27">
+        <v>1.15</v>
+      </c>
+      <c r="O27">
+        <v>0.23</v>
+      </c>
+      <c r="P27">
+        <v>0.9200000000000002</v>
+      </c>
+      <c r="Q27">
+        <v>0.9100000000000001</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.05017695832804693</v>
+      </c>
+      <c r="T27">
+        <v>0.7567694198646049</v>
+      </c>
+      <c r="U27">
+        <v>0.02</v>
+      </c>
+      <c r="V27">
+        <v>0.2</v>
+      </c>
+      <c r="W27">
+        <v>0.016</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>8.187500000000002</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.04186397618025407</v>
+      </c>
+      <c r="C28">
+        <v>25.96965239730589</v>
+      </c>
+      <c r="D28">
+        <v>33.56365239730589</v>
+      </c>
+      <c r="E28">
+        <v>-10.38</v>
+      </c>
+      <c r="F28">
+        <v>8.32</v>
+      </c>
+      <c r="G28">
+        <v>0.726</v>
+      </c>
+      <c r="H28">
+        <v>13.3</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1.3</v>
+      </c>
+      <c r="K28">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L28">
+        <v>1.31</v>
+      </c>
+      <c r="M28">
+        <v>0.175552</v>
+      </c>
+      <c r="N28">
+        <v>1.134448</v>
+      </c>
+      <c r="O28">
+        <v>0.2268896</v>
+      </c>
+      <c r="P28">
+        <v>0.9075584000000001</v>
+      </c>
+      <c r="Q28">
+        <v>0.8975584000000001</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.05064212997331631</v>
+      </c>
+      <c r="T28">
+        <v>0.7653813051546715</v>
+      </c>
+      <c r="U28">
+        <v>0.0211</v>
+      </c>
+      <c r="V28">
+        <v>0.2</v>
+      </c>
+      <c r="W28">
+        <v>0.01688</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>7.462176449143274</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.04187523361447295</v>
+      </c>
+      <c r="C29">
+        <v>25.63805338274532</v>
+      </c>
+      <c r="D29">
+        <v>33.55205338274532</v>
+      </c>
+      <c r="E29">
+        <v>-10.06</v>
+      </c>
+      <c r="F29">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="G29">
+        <v>0.726</v>
+      </c>
+      <c r="H29">
+        <v>13.3</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1.3</v>
+      </c>
+      <c r="K29">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L29">
+        <v>1.31</v>
+      </c>
+      <c r="M29">
+        <v>0.182304</v>
+      </c>
+      <c r="N29">
+        <v>1.127696</v>
+      </c>
+      <c r="O29">
+        <v>0.2255392</v>
+      </c>
+      <c r="P29">
+        <v>0.9021568</v>
+      </c>
+      <c r="Q29">
+        <v>0.8921568</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.05112004604722321</v>
+      </c>
+      <c r="T29">
+        <v>0.7742291325074798</v>
+      </c>
+      <c r="U29">
+        <v>0.0211</v>
+      </c>
+      <c r="V29">
+        <v>0.2</v>
+      </c>
+      <c r="W29">
+        <v>0.01688</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>7.185799543619448</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.04188649104869182</v>
+      </c>
+      <c r="C30">
+        <v>25.30646238225067</v>
+      </c>
+      <c r="D30">
+        <v>33.54046238225067</v>
+      </c>
+      <c r="E30">
+        <v>-9.739999999999998</v>
+      </c>
+      <c r="F30">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="G30">
+        <v>0.726</v>
+      </c>
+      <c r="H30">
+        <v>13.3</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1.3</v>
+      </c>
+      <c r="K30">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L30">
+        <v>1.31</v>
+      </c>
+      <c r="M30">
+        <v>0.189056</v>
+      </c>
+      <c r="N30">
+        <v>1.120944</v>
+      </c>
+      <c r="O30">
+        <v>0.2241888</v>
+      </c>
+      <c r="P30">
+        <v>0.8967552</v>
+      </c>
+      <c r="Q30">
+        <v>0.8867552</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.05161123756762753</v>
+      </c>
+      <c r="T30">
+        <v>0.7833227328423104</v>
+      </c>
+      <c r="U30">
+        <v>0.0211</v>
+      </c>
+      <c r="V30">
+        <v>0.2</v>
+      </c>
+      <c r="W30">
+        <v>0.01688</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>6.929163845633039</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.04189774848291069</v>
+      </c>
+      <c r="C31">
+        <v>24.9748793875191</v>
+      </c>
+      <c r="D31">
+        <v>33.5288793875191</v>
+      </c>
+      <c r="E31">
+        <v>-9.42</v>
+      </c>
+      <c r="F31">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="G31">
+        <v>0.726</v>
+      </c>
+      <c r="H31">
+        <v>13.3</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1.3</v>
+      </c>
+      <c r="K31">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L31">
+        <v>1.31</v>
+      </c>
+      <c r="M31">
+        <v>0.195808</v>
+      </c>
+      <c r="N31">
+        <v>1.114192</v>
+      </c>
+      <c r="O31">
+        <v>0.2228384</v>
+      </c>
+      <c r="P31">
+        <v>0.8913536000000001</v>
+      </c>
+      <c r="Q31">
+        <v>0.8813536000000001</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.0521162654688883</v>
+      </c>
+      <c r="T31">
+        <v>0.7926724909330517</v>
+      </c>
+      <c r="U31">
+        <v>0.0211</v>
+      </c>
+      <c r="V31">
+        <v>0.2</v>
+      </c>
+      <c r="W31">
+        <v>0.01688</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>6.690227161300867</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.04190900591712957</v>
+      </c>
+      <c r="C32">
+        <v>24.64330439025923</v>
+      </c>
+      <c r="D32">
+        <v>33.51730439025923</v>
+      </c>
+      <c r="E32">
+        <v>-9.1</v>
+      </c>
+      <c r="F32">
+        <v>9.6</v>
+      </c>
+      <c r="G32">
+        <v>0.726</v>
+      </c>
+      <c r="H32">
+        <v>13.3</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1.3</v>
+      </c>
+      <c r="K32">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L32">
+        <v>1.31</v>
+      </c>
+      <c r="M32">
+        <v>0.20256</v>
+      </c>
+      <c r="N32">
+        <v>1.10744</v>
+      </c>
+      <c r="O32">
+        <v>0.221488</v>
+      </c>
+      <c r="P32">
+        <v>0.885952</v>
+      </c>
+      <c r="Q32">
+        <v>0.875952</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.05263572273875652</v>
+      </c>
+      <c r="T32">
+        <v>0.8022893849692428</v>
+      </c>
+      <c r="U32">
+        <v>0.0211</v>
+      </c>
+      <c r="V32">
+        <v>0.2</v>
+      </c>
+      <c r="W32">
+        <v>0.01688</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>6.467219589257504</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.04229226335134843</v>
+      </c>
+      <c r="C33">
+        <v>23.93394777214112</v>
+      </c>
+      <c r="D33">
+        <v>33.12794777214112</v>
+      </c>
+      <c r="E33">
+        <v>-8.779999999999999</v>
+      </c>
+      <c r="F33">
+        <v>9.92</v>
+      </c>
+      <c r="G33">
+        <v>0.726</v>
+      </c>
+      <c r="H33">
+        <v>13.3</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1.3</v>
+      </c>
+      <c r="K33">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L33">
+        <v>1.31</v>
+      </c>
+      <c r="M33">
+        <v>0.224192</v>
+      </c>
+      <c r="N33">
+        <v>1.085808</v>
+      </c>
+      <c r="O33">
+        <v>0.2171616</v>
+      </c>
+      <c r="P33">
+        <v>0.8686464</v>
+      </c>
+      <c r="Q33">
+        <v>0.8586464</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.05317023674108469</v>
+      </c>
+      <c r="T33">
+        <v>0.8121850295572076</v>
+      </c>
+      <c r="U33">
+        <v>0.0226</v>
+      </c>
+      <c r="V33">
+        <v>0.2</v>
+      </c>
+      <c r="W33">
+        <v>0.01808</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>5.843205823579789</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.04231552078556731</v>
+      </c>
+      <c r="C34">
+        <v>23.59061113992134</v>
+      </c>
+      <c r="D34">
+        <v>33.10461113992135</v>
+      </c>
+      <c r="E34">
+        <v>-8.459999999999999</v>
+      </c>
+      <c r="F34">
+        <v>10.24</v>
+      </c>
+      <c r="G34">
+        <v>0.726</v>
+      </c>
+      <c r="H34">
+        <v>13.3</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1.3</v>
+      </c>
+      <c r="K34">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L34">
+        <v>1.31</v>
+      </c>
+      <c r="M34">
+        <v>0.231424</v>
+      </c>
+      <c r="N34">
+        <v>1.078576</v>
+      </c>
+      <c r="O34">
+        <v>0.2157152</v>
+      </c>
+      <c r="P34">
+        <v>0.8628608</v>
+      </c>
+      <c r="Q34">
+        <v>0.8528608</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.05372047174348134</v>
+      </c>
+      <c r="T34">
+        <v>0.8223717225154066</v>
+      </c>
+      <c r="U34">
+        <v>0.0226</v>
+      </c>
+      <c r="V34">
+        <v>0.2</v>
+      </c>
+      <c r="W34">
+        <v>0.01808</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>5.66060564159292</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.04233877821978618</v>
+      </c>
+      <c r="C35">
+        <v>23.24730736304418</v>
+      </c>
+      <c r="D35">
+        <v>33.08130736304418</v>
+      </c>
+      <c r="E35">
+        <v>-8.139999999999999</v>
+      </c>
+      <c r="F35">
+        <v>10.56</v>
+      </c>
+      <c r="G35">
+        <v>0.726</v>
+      </c>
+      <c r="H35">
+        <v>13.3</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1.3</v>
+      </c>
+      <c r="K35">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L35">
+        <v>1.31</v>
+      </c>
+      <c r="M35">
+        <v>0.238656</v>
+      </c>
+      <c r="N35">
+        <v>1.071344</v>
+      </c>
+      <c r="O35">
+        <v>0.2142688</v>
+      </c>
+      <c r="P35">
+        <v>0.8570752</v>
+      </c>
+      <c r="Q35">
+        <v>0.8470752</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.05428713167132267</v>
+      </c>
+      <c r="T35">
+        <v>0.8328624958604175</v>
+      </c>
+      <c r="U35">
+        <v>0.0226</v>
+      </c>
+      <c r="V35">
+        <v>0.2</v>
+      </c>
+      <c r="W35">
+        <v>0.01808</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>5.489072137302226</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.04236203565400505</v>
+      </c>
+      <c r="C36">
+        <v>22.90403637217351</v>
+      </c>
+      <c r="D36">
+        <v>33.05803637217351</v>
+      </c>
+      <c r="E36">
+        <v>-7.819999999999999</v>
+      </c>
+      <c r="F36">
+        <v>10.88</v>
+      </c>
+      <c r="G36">
+        <v>0.726</v>
+      </c>
+      <c r="H36">
+        <v>13.3</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1.3</v>
+      </c>
+      <c r="K36">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L36">
+        <v>1.31</v>
+      </c>
+      <c r="M36">
+        <v>0.245888</v>
+      </c>
+      <c r="N36">
+        <v>1.064112</v>
+      </c>
+      <c r="O36">
+        <v>0.2128224000000001</v>
+      </c>
+      <c r="P36">
+        <v>0.8512896000000001</v>
+      </c>
+      <c r="Q36">
+        <v>0.8412896000000001</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.05487096311212887</v>
+      </c>
+      <c r="T36">
+        <v>0.8436711714280045</v>
+      </c>
+      <c r="U36">
+        <v>0.0226</v>
+      </c>
+      <c r="V36">
+        <v>0.2</v>
+      </c>
+      <c r="W36">
+        <v>0.01808</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>5.327628839146278</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.04238529308822393</v>
+      </c>
+      <c r="C37">
+        <v>22.56079809816816</v>
+      </c>
+      <c r="D37">
+        <v>33.03479809816816</v>
+      </c>
+      <c r="E37">
+        <v>-7.499999999999998</v>
+      </c>
+      <c r="F37">
+        <v>11.2</v>
+      </c>
+      <c r="G37">
+        <v>0.726</v>
+      </c>
+      <c r="H37">
+        <v>13.3</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1.3</v>
+      </c>
+      <c r="K37">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L37">
+        <v>1.31</v>
+      </c>
+      <c r="M37">
+        <v>0.25312</v>
+      </c>
+      <c r="N37">
+        <v>1.05688</v>
+      </c>
+      <c r="O37">
+        <v>0.211376</v>
+      </c>
+      <c r="P37">
+        <v>0.845504</v>
+      </c>
+      <c r="Q37">
+        <v>0.835504</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.05547275859726759</v>
+      </c>
+      <c r="T37">
+        <v>0.8548124216284404</v>
+      </c>
+      <c r="U37">
+        <v>0.0226</v>
+      </c>
+      <c r="V37">
+        <v>0.2</v>
+      </c>
+      <c r="W37">
+        <v>0.01808</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>5.175410872313527</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.0424085505224428</v>
+      </c>
+      <c r="C38">
+        <v>22.2175924720813</v>
+      </c>
+      <c r="D38">
+        <v>33.0115924720813</v>
+      </c>
+      <c r="E38">
+        <v>-7.18</v>
+      </c>
+      <c r="F38">
+        <v>11.52</v>
+      </c>
+      <c r="G38">
+        <v>0.726</v>
+      </c>
+      <c r="H38">
+        <v>13.3</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1.3</v>
+      </c>
+      <c r="K38">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L38">
+        <v>1.31</v>
+      </c>
+      <c r="M38">
+        <v>0.260352</v>
+      </c>
+      <c r="N38">
+        <v>1.049648</v>
+      </c>
+      <c r="O38">
+        <v>0.2099296</v>
+      </c>
+      <c r="P38">
+        <v>0.8397184000000001</v>
+      </c>
+      <c r="Q38">
+        <v>0.8297184000000001</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.05609336019131687</v>
+      </c>
+      <c r="T38">
+        <v>0.8663018358976398</v>
+      </c>
+      <c r="U38">
+        <v>0.0226</v>
+      </c>
+      <c r="V38">
+        <v>0.2</v>
+      </c>
+      <c r="W38">
+        <v>0.01808</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>5.031649459193708</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.04243180795666168</v>
+      </c>
+      <c r="C39">
+        <v>21.87441942515963</v>
+      </c>
+      <c r="D39">
+        <v>32.98841942515963</v>
+      </c>
+      <c r="E39">
+        <v>-6.859999999999999</v>
+      </c>
+      <c r="F39">
+        <v>11.84</v>
+      </c>
+      <c r="G39">
+        <v>0.726</v>
+      </c>
+      <c r="H39">
+        <v>13.3</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1.3</v>
+      </c>
+      <c r="K39">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L39">
+        <v>1.31</v>
+      </c>
+      <c r="M39">
+        <v>0.267584</v>
+      </c>
+      <c r="N39">
+        <v>1.042416</v>
+      </c>
+      <c r="O39">
+        <v>0.2084832</v>
+      </c>
+      <c r="P39">
+        <v>0.8339328</v>
+      </c>
+      <c r="Q39">
+        <v>0.8239328</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.0567336634232725</v>
+      </c>
+      <c r="T39">
+        <v>0.8781559934769727</v>
+      </c>
+      <c r="U39">
+        <v>0.0226</v>
+      </c>
+      <c r="V39">
+        <v>0.2</v>
+      </c>
+      <c r="W39">
+        <v>0.01808</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>4.895658933269553</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.04245506539088054</v>
+      </c>
+      <c r="C40">
+        <v>21.53127888884278</v>
+      </c>
+      <c r="D40">
+        <v>32.96527888884278</v>
+      </c>
+      <c r="E40">
+        <v>-6.539999999999999</v>
+      </c>
+      <c r="F40">
+        <v>12.16</v>
+      </c>
+      <c r="G40">
+        <v>0.726</v>
+      </c>
+      <c r="H40">
+        <v>13.3</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1.3</v>
+      </c>
+      <c r="K40">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L40">
+        <v>1.31</v>
+      </c>
+      <c r="M40">
+        <v>0.274816</v>
+      </c>
+      <c r="N40">
+        <v>1.035184</v>
+      </c>
+      <c r="O40">
+        <v>0.2070368</v>
+      </c>
+      <c r="P40">
+        <v>0.8281472000000001</v>
+      </c>
+      <c r="Q40">
+        <v>0.8181472000000001</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.05739462159819443</v>
+      </c>
+      <c r="T40">
+        <v>0.8903925432362838</v>
+      </c>
+      <c r="U40">
+        <v>0.0226</v>
+      </c>
+      <c r="V40">
+        <v>0.2</v>
+      </c>
+      <c r="W40">
+        <v>0.01808</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>4.76682580344667</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.04247832282509943</v>
+      </c>
+      <c r="C41">
+        <v>21.18817079476262</v>
+      </c>
+      <c r="D41">
+        <v>32.94217079476262</v>
+      </c>
+      <c r="E41">
+        <v>-6.219999999999999</v>
+      </c>
+      <c r="F41">
+        <v>12.48</v>
+      </c>
+      <c r="G41">
+        <v>0.726</v>
+      </c>
+      <c r="H41">
+        <v>13.3</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1.3</v>
+      </c>
+      <c r="K41">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L41">
+        <v>1.31</v>
+      </c>
+      <c r="M41">
+        <v>0.282048</v>
+      </c>
+      <c r="N41">
+        <v>1.027952</v>
+      </c>
+      <c r="O41">
+        <v>0.2055904</v>
+      </c>
+      <c r="P41">
+        <v>0.8223616</v>
+      </c>
+      <c r="Q41">
+        <v>0.8123616</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.05807725053294988</v>
+      </c>
+      <c r="T41">
+        <v>0.9030302913483595</v>
+      </c>
+      <c r="U41">
+        <v>0.0226</v>
+      </c>
+      <c r="V41">
+        <v>0.2</v>
+      </c>
+      <c r="W41">
+        <v>0.01808</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>4.644599500794191</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.0425015802593183</v>
+      </c>
+      <c r="C42">
+        <v>20.8450950747426</v>
+      </c>
+      <c r="D42">
+        <v>32.9190950747426</v>
+      </c>
+      <c r="E42">
+        <v>-5.899999999999999</v>
+      </c>
+      <c r="F42">
+        <v>12.8</v>
+      </c>
+      <c r="G42">
+        <v>0.726</v>
+      </c>
+      <c r="H42">
+        <v>13.3</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1.3</v>
+      </c>
+      <c r="K42">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L42">
+        <v>1.31</v>
+      </c>
+      <c r="M42">
+        <v>0.28928</v>
+      </c>
+      <c r="N42">
+        <v>1.02072</v>
+      </c>
+      <c r="O42">
+        <v>0.204144</v>
+      </c>
+      <c r="P42">
+        <v>0.8165760000000001</v>
+      </c>
+      <c r="Q42">
+        <v>0.8065760000000001</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.0587826337655305</v>
+      </c>
+      <c r="T42">
+        <v>0.9160892977308376</v>
+      </c>
+      <c r="U42">
+        <v>0.0226</v>
+      </c>
+      <c r="V42">
+        <v>0.2</v>
+      </c>
+      <c r="W42">
+        <v>0.01808</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>4.528484513274337</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.07183673583857725</v>
+      </c>
+      <c r="C43">
+        <v>5.083183011428851</v>
+      </c>
+      <c r="D43">
+        <v>17.47718301142885</v>
+      </c>
+      <c r="E43">
+        <v>-5.579999999999998</v>
+      </c>
+      <c r="F43">
+        <v>13.12</v>
+      </c>
+      <c r="G43">
+        <v>0.726</v>
+      </c>
+      <c r="H43">
+        <v>13.3</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1.3</v>
+      </c>
+      <c r="K43">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L43">
+        <v>1.31</v>
+      </c>
+      <c r="M43">
+        <v>1.43008</v>
+      </c>
+      <c r="N43">
+        <v>-0.12008</v>
+      </c>
+      <c r="O43">
+        <v>-0.024016</v>
+      </c>
+      <c r="P43">
+        <v>-0.09606399999999997</v>
+      </c>
+      <c r="Q43">
+        <v>-0.106064</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.05988853531962245</v>
+      </c>
+      <c r="T43">
+        <v>0.9365632398182383</v>
+      </c>
+      <c r="U43">
+        <v>0.109</v>
+      </c>
+      <c r="V43">
+        <v>0.1832065339002014</v>
+      </c>
+      <c r="W43">
+        <v>0.08903048780487804</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.9160326695010069</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.07283373583857725</v>
+      </c>
+      <c r="C44">
+        <v>4.48892318344288</v>
+      </c>
+      <c r="D44">
+        <v>17.20292318344288</v>
+      </c>
+      <c r="E44">
+        <v>-5.26</v>
+      </c>
+      <c r="F44">
+        <v>13.44</v>
+      </c>
+      <c r="G44">
+        <v>0.726</v>
+      </c>
+      <c r="H44">
+        <v>13.3</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1.3</v>
+      </c>
+      <c r="K44">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L44">
+        <v>1.31</v>
+      </c>
+      <c r="M44">
+        <v>1.46496</v>
+      </c>
+      <c r="N44">
+        <v>-0.15496</v>
+      </c>
+      <c r="O44">
+        <v>-0.030992</v>
+      </c>
+      <c r="P44">
+        <v>-0.123968</v>
+      </c>
+      <c r="Q44">
+        <v>-0.133968</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.06076075144582284</v>
+      </c>
+      <c r="T44">
+        <v>0.95271088188407</v>
+      </c>
+      <c r="U44">
+        <v>0.109</v>
+      </c>
+      <c r="V44">
+        <v>0.1788444735692442</v>
+      </c>
+      <c r="W44">
+        <v>0.08950595238095238</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.8942223678462211</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.07383073583857724</v>
+      </c>
+      <c r="C45">
+        <v>3.903137985257688</v>
+      </c>
+      <c r="D45">
+        <v>16.93713798525769</v>
+      </c>
+      <c r="E45">
+        <v>-4.94</v>
+      </c>
+      <c r="F45">
+        <v>13.76</v>
+      </c>
+      <c r="G45">
+        <v>0.726</v>
+      </c>
+      <c r="H45">
+        <v>13.3</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1.3</v>
+      </c>
+      <c r="K45">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L45">
+        <v>1.31</v>
+      </c>
+      <c r="M45">
+        <v>1.49984</v>
+      </c>
+      <c r="N45">
+        <v>-0.18984</v>
+      </c>
+      <c r="O45">
+        <v>-0.037968</v>
+      </c>
+      <c r="P45">
+        <v>-0.151872</v>
+      </c>
+      <c r="Q45">
+        <v>-0.161872</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.06166357164662674</v>
+      </c>
+      <c r="T45">
+        <v>0.9694251078820361</v>
+      </c>
+      <c r="U45">
+        <v>0.109</v>
+      </c>
+      <c r="V45">
+        <v>0.1746852997653083</v>
+      </c>
+      <c r="W45">
+        <v>0.08995930232558139</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.8734264988265414</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.07482773583857724</v>
+      </c>
+      <c r="C46">
+        <v>3.325440594142266</v>
+      </c>
+      <c r="D46">
+        <v>16.67944059414227</v>
+      </c>
+      <c r="E46">
+        <v>-4.619999999999999</v>
+      </c>
+      <c r="F46">
+        <v>14.08</v>
+      </c>
+      <c r="G46">
+        <v>0.726</v>
+      </c>
+      <c r="H46">
+        <v>13.3</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1.3</v>
+      </c>
+      <c r="K46">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L46">
+        <v>1.31</v>
+      </c>
+      <c r="M46">
+        <v>1.53472</v>
+      </c>
+      <c r="N46">
+        <v>-0.22472</v>
+      </c>
+      <c r="O46">
+        <v>-0.04494400000000001</v>
+      </c>
+      <c r="P46">
+        <v>-0.179776</v>
+      </c>
+      <c r="Q46">
+        <v>-0.189776</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.06259863542603079</v>
+      </c>
+      <c r="T46">
+        <v>0.9867362705227868</v>
+      </c>
+      <c r="U46">
+        <v>0.109</v>
+      </c>
+      <c r="V46">
+        <v>0.1707151793160968</v>
+      </c>
+      <c r="W46">
+        <v>0.09039204545454545</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.8535758965804837</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.07582473583857724</v>
+      </c>
+      <c r="C47">
+        <v>2.755467376470103</v>
+      </c>
+      <c r="D47">
+        <v>16.4294673764701</v>
+      </c>
+      <c r="E47">
+        <v>-4.299999999999999</v>
+      </c>
+      <c r="F47">
+        <v>14.4</v>
+      </c>
+      <c r="G47">
+        <v>0.726</v>
+      </c>
+      <c r="H47">
+        <v>13.3</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1.3</v>
+      </c>
+      <c r="K47">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L47">
+        <v>1.31</v>
+      </c>
+      <c r="M47">
+        <v>1.5696</v>
+      </c>
+      <c r="N47">
+        <v>-0.2596000000000001</v>
+      </c>
+      <c r="O47">
+        <v>-0.05192000000000001</v>
+      </c>
+      <c r="P47">
+        <v>-0.20768</v>
+      </c>
+      <c r="Q47">
+        <v>-0.21768</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.0635677015246859</v>
+      </c>
+      <c r="T47">
+        <v>1.004676929986837</v>
+      </c>
+      <c r="U47">
+        <v>0.109</v>
+      </c>
+      <c r="V47">
+        <v>0.1669215086646279</v>
+      </c>
+      <c r="W47">
+        <v>0.09080555555555556</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.8346075433231397</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.07682173583857724</v>
+      </c>
+      <c r="C48">
+        <v>2.192876175712167</v>
+      </c>
+      <c r="D48">
+        <v>16.18687617571217</v>
+      </c>
+      <c r="E48">
+        <v>-3.979999999999999</v>
+      </c>
+      <c r="F48">
+        <v>14.72</v>
+      </c>
+      <c r="G48">
+        <v>0.726</v>
+      </c>
+      <c r="H48">
+        <v>13.3</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1.3</v>
+      </c>
+      <c r="K48">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L48">
+        <v>1.31</v>
+      </c>
+      <c r="M48">
+        <v>1.60448</v>
+      </c>
+      <c r="N48">
+        <v>-0.2944800000000001</v>
+      </c>
+      <c r="O48">
+        <v>-0.05889600000000002</v>
+      </c>
+      <c r="P48">
+        <v>-0.2355840000000001</v>
+      </c>
+      <c r="Q48">
+        <v>-0.2455840000000001</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.06457265896032822</v>
+      </c>
+      <c r="T48">
+        <v>1.023282058319927</v>
+      </c>
+      <c r="U48">
+        <v>0.109</v>
+      </c>
+      <c r="V48">
+        <v>0.1632927802153969</v>
+      </c>
+      <c r="W48">
+        <v>0.09120108695652174</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.8164639010769844</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.09302218140221466</v>
+      </c>
+      <c r="C49">
+        <v>-1.259323701762932</v>
+      </c>
+      <c r="D49">
+        <v>13.05467629823707</v>
+      </c>
+      <c r="E49">
+        <v>-3.659999999999998</v>
+      </c>
+      <c r="F49">
+        <v>15.04</v>
+      </c>
+      <c r="G49">
+        <v>0.726</v>
+      </c>
+      <c r="H49">
+        <v>13.3</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1.3</v>
+      </c>
+      <c r="K49">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L49">
+        <v>1.31</v>
+      </c>
+      <c r="M49">
+        <v>2.108608</v>
+      </c>
+      <c r="N49">
+        <v>-0.7986079999999998</v>
+      </c>
+      <c r="O49">
+        <v>-0.1597216</v>
+      </c>
+      <c r="P49">
+        <v>-0.6388863999999999</v>
+      </c>
+      <c r="Q49">
+        <v>-0.6488863999999999</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.06663336113625408</v>
+      </c>
+      <c r="T49">
+        <v>1.061432558111863</v>
+      </c>
+      <c r="U49">
+        <v>0.1402</v>
+      </c>
+      <c r="V49">
+        <v>0.1242525874889975</v>
+      </c>
+      <c r="W49">
+        <v>0.1227797872340426</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.6212629374449875</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.09433118140221466</v>
+      </c>
+      <c r="C50">
+        <v>-1.780291993542388</v>
+      </c>
+      <c r="D50">
+        <v>12.85370800645761</v>
+      </c>
+      <c r="E50">
+        <v>-3.34</v>
+      </c>
+      <c r="F50">
+        <v>15.36</v>
+      </c>
+      <c r="G50">
+        <v>0.726</v>
+      </c>
+      <c r="H50">
+        <v>13.3</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1.3</v>
+      </c>
+      <c r="K50">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L50">
+        <v>1.31</v>
+      </c>
+      <c r="M50">
+        <v>2.153472</v>
+      </c>
+      <c r="N50">
+        <v>-0.8434719999999998</v>
+      </c>
+      <c r="O50">
+        <v>-0.1686944</v>
+      </c>
+      <c r="P50">
+        <v>-0.6747775999999999</v>
+      </c>
+      <c r="Q50">
+        <v>-0.6847775999999999</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.06773592577348975</v>
+      </c>
+      <c r="T50">
+        <v>1.081844722690938</v>
+      </c>
+      <c r="U50">
+        <v>0.1402</v>
+      </c>
+      <c r="V50">
+        <v>0.1216639919163101</v>
+      </c>
+      <c r="W50">
+        <v>0.1231427083333333</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.6083199595815503</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.09564018140221467</v>
+      </c>
+      <c r="C51">
+        <v>-2.295166541026504</v>
+      </c>
+      <c r="D51">
+        <v>12.6588334589735</v>
+      </c>
+      <c r="E51">
+        <v>-3.02</v>
+      </c>
+      <c r="F51">
+        <v>15.68</v>
+      </c>
+      <c r="G51">
+        <v>0.726</v>
+      </c>
+      <c r="H51">
+        <v>13.3</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1.3</v>
+      </c>
+      <c r="K51">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L51">
+        <v>1.31</v>
+      </c>
+      <c r="M51">
+        <v>2.198336</v>
+      </c>
+      <c r="N51">
+        <v>-0.8883359999999998</v>
+      </c>
+      <c r="O51">
+        <v>-0.1776672</v>
+      </c>
+      <c r="P51">
+        <v>-0.7106687999999999</v>
+      </c>
+      <c r="Q51">
+        <v>-0.7206687999999999</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.06888172823963661</v>
+      </c>
+      <c r="T51">
+        <v>1.103057364312329</v>
+      </c>
+      <c r="U51">
+        <v>0.1402</v>
+      </c>
+      <c r="V51">
+        <v>0.1191810533057731</v>
+      </c>
+      <c r="W51">
+        <v>0.1234908163265306</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.5959052665288656</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.09694918140221466</v>
+      </c>
+      <c r="C52">
+        <v>-2.804220365976175</v>
+      </c>
+      <c r="D52">
+        <v>12.46977963402382</v>
+      </c>
+      <c r="E52">
+        <v>-2.699999999999999</v>
+      </c>
+      <c r="F52">
+        <v>16</v>
+      </c>
+      <c r="G52">
+        <v>0.726</v>
+      </c>
+      <c r="H52">
+        <v>13.3</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1.3</v>
+      </c>
+      <c r="K52">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L52">
+        <v>1.31</v>
+      </c>
+      <c r="M52">
+        <v>2.2432</v>
+      </c>
+      <c r="N52">
+        <v>-0.9331999999999998</v>
+      </c>
+      <c r="O52">
+        <v>-0.18664</v>
+      </c>
+      <c r="P52">
+        <v>-0.7465599999999999</v>
+      </c>
+      <c r="Q52">
+        <v>-0.7565599999999999</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.07007336280442933</v>
+      </c>
+      <c r="T52">
+        <v>1.125118511598575</v>
+      </c>
+      <c r="U52">
+        <v>0.1402</v>
+      </c>
+      <c r="V52">
+        <v>0.1167974322396576</v>
+      </c>
+      <c r="W52">
+        <v>0.123825</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.5839871611982882</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.09825818140221466</v>
+      </c>
+      <c r="C53">
+        <v>-3.307710420332558</v>
+      </c>
+      <c r="D53">
+        <v>12.28628957966744</v>
+      </c>
+      <c r="E53">
+        <v>-2.379999999999999</v>
+      </c>
+      <c r="F53">
+        <v>16.32</v>
+      </c>
+      <c r="G53">
+        <v>0.726</v>
+      </c>
+      <c r="H53">
+        <v>13.3</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1.3</v>
+      </c>
+      <c r="K53">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L53">
+        <v>1.31</v>
+      </c>
+      <c r="M53">
+        <v>2.288064</v>
+      </c>
+      <c r="N53">
+        <v>-0.9780639999999998</v>
+      </c>
+      <c r="O53">
+        <v>-0.1956128</v>
+      </c>
+      <c r="P53">
+        <v>-0.7824511999999999</v>
+      </c>
+      <c r="Q53">
+        <v>-0.7924511999999999</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.07131363551472382</v>
+      </c>
+      <c r="T53">
+        <v>1.148080113876097</v>
+      </c>
+      <c r="U53">
+        <v>0.1402</v>
+      </c>
+      <c r="V53">
+        <v>0.1145072865094683</v>
+      </c>
+      <c r="W53">
+        <v>0.1241460784313725</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.5725364325473414</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.09956718140221467</v>
+      </c>
+      <c r="C54">
+        <v>-3.805878751391024</v>
+      </c>
+      <c r="D54">
+        <v>12.10812124860898</v>
+      </c>
+      <c r="E54">
+        <v>-2.059999999999999</v>
+      </c>
+      <c r="F54">
+        <v>16.64</v>
+      </c>
+      <c r="G54">
+        <v>0.726</v>
+      </c>
+      <c r="H54">
+        <v>13.3</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1.3</v>
+      </c>
+      <c r="K54">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L54">
+        <v>1.31</v>
+      </c>
+      <c r="M54">
+        <v>2.332928</v>
+      </c>
+      <c r="N54">
+        <v>-1.022928</v>
+      </c>
+      <c r="O54">
+        <v>-0.2045856</v>
+      </c>
+      <c r="P54">
+        <v>-0.8183423999999999</v>
+      </c>
+      <c r="Q54">
+        <v>-0.8283423999999999</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.0726055862546139</v>
+      </c>
+      <c r="T54">
+        <v>1.171998449581849</v>
+      </c>
+      <c r="U54">
+        <v>0.1402</v>
+      </c>
+      <c r="V54">
+        <v>0.1123052233073631</v>
+      </c>
+      <c r="W54">
+        <v>0.1244548076923077</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.5615261165368156</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1008761814022147</v>
+      </c>
+      <c r="C55">
+        <v>-4.298953567044411</v>
+      </c>
+      <c r="D55">
+        <v>11.93504643295559</v>
+      </c>
+      <c r="E55">
+        <v>-1.739999999999998</v>
+      </c>
+      <c r="F55">
+        <v>16.96</v>
+      </c>
+      <c r="G55">
+        <v>0.726</v>
+      </c>
+      <c r="H55">
+        <v>13.3</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1.3</v>
+      </c>
+      <c r="K55">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L55">
+        <v>1.31</v>
+      </c>
+      <c r="M55">
+        <v>2.377792</v>
+      </c>
+      <c r="N55">
+        <v>-1.067792</v>
+      </c>
+      <c r="O55">
+        <v>-0.2135584</v>
+      </c>
+      <c r="P55">
+        <v>-0.8542335999999999</v>
+      </c>
+      <c r="Q55">
+        <v>-0.8642335999999999</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.07395251362173334</v>
+      </c>
+      <c r="T55">
+        <v>1.196934586806995</v>
+      </c>
+      <c r="U55">
+        <v>0.1402</v>
+      </c>
+      <c r="V55">
+        <v>0.1101862568298657</v>
+      </c>
+      <c r="W55">
+        <v>0.1247518867924528</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.5509312841493286</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1021851814022147</v>
+      </c>
+      <c r="C56">
+        <v>-4.787150210953492</v>
+      </c>
+      <c r="D56">
+        <v>11.76684978904651</v>
+      </c>
+      <c r="E56">
+        <v>-1.419999999999998</v>
+      </c>
+      <c r="F56">
+        <v>17.28</v>
+      </c>
+      <c r="G56">
+        <v>0.726</v>
+      </c>
+      <c r="H56">
+        <v>13.3</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1.3</v>
+      </c>
+      <c r="K56">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L56">
+        <v>1.31</v>
+      </c>
+      <c r="M56">
+        <v>2.422656</v>
+      </c>
+      <c r="N56">
+        <v>-1.112656</v>
+      </c>
+      <c r="O56">
+        <v>-0.2225312</v>
+      </c>
+      <c r="P56">
+        <v>-0.8901247999999999</v>
+      </c>
+      <c r="Q56">
+        <v>-0.9001247999999999</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.07535800304829277</v>
+      </c>
+      <c r="T56">
+        <v>1.222954903911495</v>
+      </c>
+      <c r="U56">
+        <v>0.1402</v>
+      </c>
+      <c r="V56">
+        <v>0.1081457705922756</v>
+      </c>
+      <c r="W56">
+        <v>0.125037962962963</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.540728852961378</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1034941814022147</v>
+      </c>
+      <c r="C57">
+        <v>-5.270672056406887</v>
+      </c>
+      <c r="D57">
+        <v>11.60332794359311</v>
+      </c>
+      <c r="E57">
+        <v>-1.099999999999998</v>
+      </c>
+      <c r="F57">
+        <v>17.6</v>
+      </c>
+      <c r="G57">
+        <v>0.726</v>
+      </c>
+      <c r="H57">
+        <v>13.3</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1.3</v>
+      </c>
+      <c r="K57">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L57">
+        <v>1.31</v>
+      </c>
+      <c r="M57">
+        <v>2.46752</v>
+      </c>
+      <c r="N57">
+        <v>-1.15752</v>
+      </c>
+      <c r="O57">
+        <v>-0.231504</v>
+      </c>
+      <c r="P57">
+        <v>-0.926016</v>
+      </c>
+      <c r="Q57">
+        <v>-0.936016</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.07682595867158817</v>
+      </c>
+      <c r="T57">
+        <v>1.250131679553973</v>
+      </c>
+      <c r="U57">
+        <v>0.1402</v>
+      </c>
+      <c r="V57">
+        <v>0.1061794838542342</v>
+      </c>
+      <c r="W57">
+        <v>0.1253136363636363</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.5308974192711711</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1048031814022147</v>
+      </c>
+      <c r="C58">
+        <v>-5.749711326671566</v>
+      </c>
+      <c r="D58">
+        <v>11.44428867332844</v>
+      </c>
+      <c r="E58">
+        <v>-0.7799999999999976</v>
+      </c>
+      <c r="F58">
+        <v>17.92</v>
+      </c>
+      <c r="G58">
+        <v>0.726</v>
+      </c>
+      <c r="H58">
+        <v>13.3</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1.3</v>
+      </c>
+      <c r="K58">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L58">
+        <v>1.31</v>
+      </c>
+      <c r="M58">
+        <v>2.512384</v>
+      </c>
+      <c r="N58">
+        <v>-1.202384</v>
+      </c>
+      <c r="O58">
+        <v>-0.2404768</v>
+      </c>
+      <c r="P58">
+        <v>-0.9619072</v>
+      </c>
+      <c r="Q58">
+        <v>-0.9719072</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.07836063955048789</v>
+      </c>
+      <c r="T58">
+        <v>1.278543763180199</v>
+      </c>
+      <c r="U58">
+        <v>0.1402</v>
+      </c>
+      <c r="V58">
+        <v>0.1042834216425515</v>
+      </c>
+      <c r="W58">
+        <v>0.1255794642857143</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.5214171082127573</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1061121814022147</v>
+      </c>
+      <c r="C59">
+        <v>-6.224449848791515</v>
+      </c>
+      <c r="D59">
+        <v>11.28955015120849</v>
+      </c>
+      <c r="E59">
+        <v>-0.4599999999999973</v>
+      </c>
+      <c r="F59">
+        <v>18.24</v>
+      </c>
+      <c r="G59">
+        <v>0.726</v>
+      </c>
+      <c r="H59">
+        <v>13.3</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1.3</v>
+      </c>
+      <c r="K59">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L59">
+        <v>1.31</v>
+      </c>
+      <c r="M59">
+        <v>2.557248</v>
+      </c>
+      <c r="N59">
+        <v>-1.247248</v>
+      </c>
+      <c r="O59">
+        <v>-0.2494496</v>
+      </c>
+      <c r="P59">
+        <v>-0.9977984</v>
+      </c>
+      <c r="Q59">
+        <v>-1.0077984</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.07996670093538295</v>
+      </c>
+      <c r="T59">
+        <v>1.308277339068111</v>
+      </c>
+      <c r="U59">
+        <v>0.1402</v>
+      </c>
+      <c r="V59">
+        <v>0.1024538879295242</v>
+      </c>
+      <c r="W59">
+        <v>0.1258359649122807</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.5122694396476213</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1074211814022147</v>
+      </c>
+      <c r="C60">
+        <v>-6.695059747049406</v>
+      </c>
+      <c r="D60">
+        <v>11.13894025295059</v>
+      </c>
+      <c r="E60">
+        <v>-0.1400000000000006</v>
+      </c>
+      <c r="F60">
+        <v>18.56</v>
+      </c>
+      <c r="G60">
+        <v>0.726</v>
+      </c>
+      <c r="H60">
+        <v>13.3</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1.3</v>
+      </c>
+      <c r="K60">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L60">
+        <v>1.31</v>
+      </c>
+      <c r="M60">
+        <v>2.602112</v>
+      </c>
+      <c r="N60">
+        <v>-1.292111999999999</v>
+      </c>
+      <c r="O60">
+        <v>-0.2584223999999999</v>
+      </c>
+      <c r="P60">
+        <v>-1.0336896</v>
+      </c>
+      <c r="Q60">
+        <v>-1.0436896</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.08164924143384444</v>
+      </c>
+      <c r="T60">
+        <v>1.339426799522113</v>
+      </c>
+      <c r="U60">
+        <v>0.1402</v>
+      </c>
+      <c r="V60">
+        <v>0.1006874415859118</v>
+      </c>
+      <c r="W60">
+        <v>0.1260836206896551</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.5034372079295588</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1348414533931954</v>
+      </c>
+      <c r="C61">
+        <v>-9.447983400327299</v>
+      </c>
+      <c r="D61">
+        <v>8.706016599672701</v>
+      </c>
+      <c r="E61">
+        <v>0.1799999999999997</v>
+      </c>
+      <c r="F61">
+        <v>18.88</v>
+      </c>
+      <c r="G61">
+        <v>0.726</v>
+      </c>
+      <c r="H61">
+        <v>13.3</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1.3</v>
+      </c>
+      <c r="K61">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L61">
+        <v>1.31</v>
+      </c>
+      <c r="M61">
+        <v>3.468256</v>
+      </c>
+      <c r="N61">
+        <v>-2.158256</v>
+      </c>
+      <c r="O61">
+        <v>-0.4316512</v>
+      </c>
+      <c r="P61">
+        <v>-1.7266048</v>
+      </c>
+      <c r="Q61">
+        <v>-1.7366048</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.08450232534925717</v>
+      </c>
+      <c r="T61">
+        <v>1.392246939469035</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.075542289842503</v>
+      </c>
+      <c r="W61">
+        <v>0.1698228813559322</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.3777114492125149</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1365854533931954</v>
+      </c>
+      <c r="C62">
+        <v>-9.887268774618473</v>
+      </c>
+      <c r="D62">
+        <v>8.586731225381527</v>
+      </c>
+      <c r="E62">
+        <v>0.5</v>
+      </c>
+      <c r="F62">
+        <v>19.2</v>
+      </c>
+      <c r="G62">
+        <v>0.726</v>
+      </c>
+      <c r="H62">
+        <v>13.3</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1.3</v>
+      </c>
+      <c r="K62">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L62">
+        <v>1.31</v>
+      </c>
+      <c r="M62">
+        <v>3.52704</v>
+      </c>
+      <c r="N62">
+        <v>-2.21704</v>
+      </c>
+      <c r="O62">
+        <v>-0.443408</v>
+      </c>
+      <c r="P62">
+        <v>-1.773632</v>
+      </c>
+      <c r="Q62">
+        <v>-1.783632</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.08638238348298861</v>
+      </c>
+      <c r="T62">
+        <v>1.427053112955761</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.07428325167846127</v>
+      </c>
+      <c r="W62">
+        <v>0.1700541666666667</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.3714162583923063</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1383294533931955</v>
+      </c>
+      <c r="C63">
+        <v>-10.32332955658142</v>
+      </c>
+      <c r="D63">
+        <v>8.470670443418582</v>
+      </c>
+      <c r="E63">
+        <v>0.8200000000000003</v>
+      </c>
+      <c r="F63">
+        <v>19.52</v>
+      </c>
+      <c r="G63">
+        <v>0.726</v>
+      </c>
+      <c r="H63">
+        <v>13.3</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1.3</v>
+      </c>
+      <c r="K63">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L63">
+        <v>1.31</v>
+      </c>
+      <c r="M63">
+        <v>3.585824</v>
+      </c>
+      <c r="N63">
+        <v>-2.275824</v>
+      </c>
+      <c r="O63">
+        <v>-0.4551648</v>
+      </c>
+      <c r="P63">
+        <v>-1.8206592</v>
+      </c>
+      <c r="Q63">
+        <v>-1.8306592</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.0883588548543473</v>
+      </c>
+      <c r="T63">
+        <v>1.463644218416165</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.0730654934542242</v>
+      </c>
+      <c r="W63">
+        <v>0.170277868852459</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.365327467271121</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1400734533931954</v>
+      </c>
+      <c r="C64">
+        <v>-10.75629475609255</v>
+      </c>
+      <c r="D64">
+        <v>8.35770524390745</v>
+      </c>
+      <c r="E64">
+        <v>1.140000000000001</v>
+      </c>
+      <c r="F64">
+        <v>19.84</v>
+      </c>
+      <c r="G64">
+        <v>0.726</v>
+      </c>
+      <c r="H64">
+        <v>13.3</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1.3</v>
+      </c>
+      <c r="K64">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L64">
+        <v>1.31</v>
+      </c>
+      <c r="M64">
+        <v>3.644608</v>
+      </c>
+      <c r="N64">
+        <v>-2.334608</v>
+      </c>
+      <c r="O64">
+        <v>-0.4669216</v>
+      </c>
+      <c r="P64">
+        <v>-1.8676864</v>
+      </c>
+      <c r="Q64">
+        <v>-1.8776864</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.09043935103472485</v>
+      </c>
+      <c r="T64">
+        <v>1.50216117153238</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.07188701775334962</v>
+      </c>
+      <c r="W64">
+        <v>0.1704943548387097</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.359435088766748</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1418174533931955</v>
+      </c>
+      <c r="C65">
+        <v>-11.18628659167459</v>
+      </c>
+      <c r="D65">
+        <v>8.247713408325414</v>
+      </c>
+      <c r="E65">
+        <v>1.460000000000001</v>
+      </c>
+      <c r="F65">
+        <v>20.16</v>
+      </c>
+      <c r="G65">
+        <v>0.726</v>
+      </c>
+      <c r="H65">
+        <v>13.3</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1.3</v>
+      </c>
+      <c r="K65">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L65">
+        <v>1.31</v>
+      </c>
+      <c r="M65">
+        <v>3.703392</v>
+      </c>
+      <c r="N65">
+        <v>-2.393392</v>
+      </c>
+      <c r="O65">
+        <v>-0.4786784</v>
+      </c>
+      <c r="P65">
+        <v>-1.9147136</v>
+      </c>
+      <c r="Q65">
+        <v>-1.9247136</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.0926323064680958</v>
+      </c>
+      <c r="T65">
+        <v>1.542760122114336</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.07074595397948692</v>
+      </c>
+      <c r="W65">
+        <v>0.1707039682539682</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.3537297698974345</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1435614533931955</v>
+      </c>
+      <c r="C66">
+        <v>-11.61342093158073</v>
+      </c>
+      <c r="D66">
+        <v>8.140579068419269</v>
+      </c>
+      <c r="E66">
+        <v>1.780000000000001</v>
+      </c>
+      <c r="F66">
+        <v>20.48</v>
+      </c>
+      <c r="G66">
+        <v>0.726</v>
+      </c>
+      <c r="H66">
+        <v>13.3</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1.3</v>
+      </c>
+      <c r="K66">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L66">
+        <v>1.31</v>
+      </c>
+      <c r="M66">
+        <v>3.762176</v>
+      </c>
+      <c r="N66">
+        <v>-2.452176</v>
+      </c>
+      <c r="O66">
+        <v>-0.4904352000000001</v>
+      </c>
+      <c r="P66">
+        <v>-1.9617408</v>
+      </c>
+      <c r="Q66">
+        <v>-1.9717408</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.09494709275887625</v>
+      </c>
+      <c r="T66">
+        <v>1.585614569950846</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.06964054844855742</v>
+      </c>
+      <c r="W66">
+        <v>0.17090703125</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.3482027422427871</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1453054533931954</v>
+      </c>
+      <c r="C67">
+        <v>-12.03780770094268</v>
+      </c>
+      <c r="D67">
+        <v>8.036192299057319</v>
+      </c>
+      <c r="E67">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="F67">
+        <v>20.8</v>
+      </c>
+      <c r="G67">
+        <v>0.726</v>
+      </c>
+      <c r="H67">
+        <v>13.3</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1.3</v>
+      </c>
+      <c r="K67">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L67">
+        <v>1.31</v>
+      </c>
+      <c r="M67">
+        <v>3.82096</v>
+      </c>
+      <c r="N67">
+        <v>-2.51096</v>
+      </c>
+      <c r="O67">
+        <v>-0.5021920000000001</v>
+      </c>
+      <c r="P67">
+        <v>-2.008768</v>
+      </c>
+      <c r="Q67">
+        <v>-2.018768000000001</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.097394152551987</v>
+      </c>
+      <c r="T67">
+        <v>1.630917843378013</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.06856915539550271</v>
+      </c>
+      <c r="W67">
+        <v>0.1711038461538462</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.3428457769775135</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1470494533931954</v>
+      </c>
+      <c r="C68">
+        <v>-12.45955125799006</v>
+      </c>
+      <c r="D68">
+        <v>7.934448742009938</v>
+      </c>
+      <c r="E68">
+        <v>2.420000000000002</v>
+      </c>
+      <c r="F68">
+        <v>21.12</v>
+      </c>
+      <c r="G68">
+        <v>0.726</v>
+      </c>
+      <c r="H68">
+        <v>13.3</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1.3</v>
+      </c>
+      <c r="K68">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L68">
+        <v>1.31</v>
+      </c>
+      <c r="M68">
+        <v>3.879744</v>
+      </c>
+      <c r="N68">
+        <v>-2.569744</v>
+      </c>
+      <c r="O68">
+        <v>-0.5139488</v>
+      </c>
+      <c r="P68">
+        <v>-2.0557952</v>
+      </c>
+      <c r="Q68">
+        <v>-2.0657952</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.09998515703881014</v>
+      </c>
+      <c r="T68">
+        <v>1.678886015242072</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.06753022879860114</v>
+      </c>
+      <c r="W68">
+        <v>0.171294696969697</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.3376511439930058</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1487934533931955</v>
+      </c>
+      <c r="C69">
+        <v>-12.87875074204801</v>
+      </c>
+      <c r="D69">
+        <v>7.835249257951996</v>
+      </c>
+      <c r="E69">
+        <v>2.740000000000002</v>
+      </c>
+      <c r="F69">
+        <v>21.44</v>
+      </c>
+      <c r="G69">
+        <v>0.726</v>
+      </c>
+      <c r="H69">
+        <v>13.3</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1.3</v>
+      </c>
+      <c r="K69">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L69">
+        <v>1.31</v>
+      </c>
+      <c r="M69">
+        <v>3.938528</v>
+      </c>
+      <c r="N69">
+        <v>-2.628528</v>
+      </c>
+      <c r="O69">
+        <v>-0.5257056000000001</v>
+      </c>
+      <c r="P69">
+        <v>-2.1028224</v>
+      </c>
+      <c r="Q69">
+        <v>-2.1128224</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1027331921005923</v>
+      </c>
+      <c r="T69">
+        <v>1.729761349037286</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.06652231493593545</v>
+      </c>
+      <c r="W69">
+        <v>0.1714798507462687</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.3326115746796773</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1505374533931955</v>
+      </c>
+      <c r="C70">
+        <v>-13.2955003957523</v>
+      </c>
+      <c r="D70">
+        <v>7.7384996042477</v>
+      </c>
+      <c r="E70">
+        <v>3.060000000000002</v>
+      </c>
+      <c r="F70">
+        <v>21.76</v>
+      </c>
+      <c r="G70">
+        <v>0.726</v>
+      </c>
+      <c r="H70">
+        <v>13.3</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1.3</v>
+      </c>
+      <c r="K70">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L70">
+        <v>1.31</v>
+      </c>
+      <c r="M70">
+        <v>3.997312</v>
+      </c>
+      <c r="N70">
+        <v>-2.687312</v>
+      </c>
+      <c r="O70">
+        <v>-0.5374624000000001</v>
+      </c>
+      <c r="P70">
+        <v>-2.1498496</v>
+      </c>
+      <c r="Q70">
+        <v>-2.1598496</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1056529793537358</v>
+      </c>
+      <c r="T70">
+        <v>1.783816391194702</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.06554404559864228</v>
+      </c>
+      <c r="W70">
+        <v>0.1716595588235294</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.3277202279932114</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1522814533931954</v>
+      </c>
+      <c r="C71">
+        <v>-13.70988986368346</v>
+      </c>
+      <c r="D71">
+        <v>7.644110136316542</v>
+      </c>
+      <c r="E71">
+        <v>3.380000000000003</v>
+      </c>
+      <c r="F71">
+        <v>22.08</v>
+      </c>
+      <c r="G71">
+        <v>0.726</v>
+      </c>
+      <c r="H71">
+        <v>13.3</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1.3</v>
+      </c>
+      <c r="K71">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L71">
+        <v>1.31</v>
+      </c>
+      <c r="M71">
+        <v>4.056096</v>
+      </c>
+      <c r="N71">
+        <v>-2.746096</v>
+      </c>
+      <c r="O71">
+        <v>-0.5492192</v>
+      </c>
+      <c r="P71">
+        <v>-2.1968768</v>
+      </c>
+      <c r="Q71">
+        <v>-2.2068768</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1087611399780498</v>
+      </c>
+      <c r="T71">
+        <v>1.841358855426789</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.06459413189431415</v>
+      </c>
+      <c r="W71">
+        <v>0.1718340579710145</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.3229706594715707</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1540254533931955</v>
+      </c>
+      <c r="C72">
+        <v>-14.12200446940881</v>
+      </c>
+      <c r="D72">
+        <v>7.551995530591194</v>
+      </c>
+      <c r="E72">
+        <v>3.700000000000003</v>
+      </c>
+      <c r="F72">
+        <v>22.4</v>
+      </c>
+      <c r="G72">
+        <v>0.726</v>
+      </c>
+      <c r="H72">
+        <v>13.3</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1.3</v>
+      </c>
+      <c r="K72">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L72">
+        <v>1.31</v>
+      </c>
+      <c r="M72">
+        <v>4.11488</v>
+      </c>
+      <c r="N72">
+        <v>-2.80488</v>
+      </c>
+      <c r="O72">
+        <v>-0.560976</v>
+      </c>
+      <c r="P72">
+        <v>-2.243904</v>
+      </c>
+      <c r="Q72">
+        <v>-2.253904</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1120765113106515</v>
+      </c>
+      <c r="T72">
+        <v>1.902737483941015</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.06367135858153822</v>
+      </c>
+      <c r="W72">
+        <v>0.1720035714285714</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.3183567929076911</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1557694533931955</v>
+      </c>
+      <c r="C73">
+        <v>-14.53192547273224</v>
+      </c>
+      <c r="D73">
+        <v>7.46207452726776</v>
+      </c>
+      <c r="E73">
+        <v>4.02</v>
+      </c>
+      <c r="F73">
+        <v>22.72</v>
+      </c>
+      <c r="G73">
+        <v>0.726</v>
+      </c>
+      <c r="H73">
+        <v>13.3</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1.3</v>
+      </c>
+      <c r="K73">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L73">
+        <v>1.31</v>
+      </c>
+      <c r="M73">
+        <v>4.173664</v>
+      </c>
+      <c r="N73">
+        <v>-2.863664</v>
+      </c>
+      <c r="O73">
+        <v>-0.5727327999999999</v>
+      </c>
+      <c r="P73">
+        <v>-2.2909312</v>
+      </c>
+      <c r="Q73">
+        <v>-2.3009312</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1156205289420533</v>
+      </c>
+      <c r="T73">
+        <v>1.968349121318291</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.06277457888320671</v>
+      </c>
+      <c r="W73">
+        <v>0.1721683098591549</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.3138728944160335</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1575134533931954</v>
+      </c>
+      <c r="C74">
+        <v>-14.93973030878198</v>
+      </c>
+      <c r="D74">
+        <v>7.374269691218024</v>
+      </c>
+      <c r="E74">
+        <v>4.34</v>
+      </c>
+      <c r="F74">
+        <v>23.04</v>
+      </c>
+      <c r="G74">
+        <v>0.726</v>
+      </c>
+      <c r="H74">
+        <v>13.3</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1.3</v>
+      </c>
+      <c r="K74">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L74">
+        <v>1.31</v>
+      </c>
+      <c r="M74">
+        <v>4.232448</v>
+      </c>
+      <c r="N74">
+        <v>-2.922448</v>
+      </c>
+      <c r="O74">
+        <v>-0.5844895999999999</v>
+      </c>
+      <c r="P74">
+        <v>-2.3379584</v>
+      </c>
+      <c r="Q74">
+        <v>-2.3479584</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1194176906899837</v>
+      </c>
+      <c r="T74">
+        <v>2.038647304222516</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.06190270973205106</v>
+      </c>
+      <c r="W74">
+        <v>0.1723284722222222</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.3095135486602553</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1592574533931954</v>
+      </c>
+      <c r="C75">
+        <v>-15.34549281041477</v>
+      </c>
+      <c r="D75">
+        <v>7.288507189585226</v>
+      </c>
+      <c r="E75">
+        <v>4.66</v>
+      </c>
+      <c r="F75">
+        <v>23.36</v>
+      </c>
+      <c r="G75">
+        <v>0.726</v>
+      </c>
+      <c r="H75">
+        <v>13.3</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1.3</v>
+      </c>
+      <c r="K75">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L75">
+        <v>1.31</v>
+      </c>
+      <c r="M75">
+        <v>4.291232</v>
+      </c>
+      <c r="N75">
+        <v>-2.981232</v>
+      </c>
+      <c r="O75">
+        <v>-0.5962464</v>
+      </c>
+      <c r="P75">
+        <v>-2.3849856</v>
+      </c>
+      <c r="Q75">
+        <v>-2.3949856</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1234961236785016</v>
+      </c>
+      <c r="T75">
+        <v>2.114152759934461</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.06105472740695447</v>
+      </c>
+      <c r="W75">
+        <v>0.1724842465753424</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.3052736370347723</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1610014533931954</v>
+      </c>
+      <c r="C76">
+        <v>-15.74928341527926</v>
+      </c>
+      <c r="D76">
+        <v>7.204716584720743</v>
+      </c>
+      <c r="E76">
+        <v>4.98</v>
+      </c>
+      <c r="F76">
+        <v>23.68</v>
+      </c>
+      <c r="G76">
+        <v>0.726</v>
+      </c>
+      <c r="H76">
+        <v>13.3</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1.3</v>
+      </c>
+      <c r="K76">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L76">
+        <v>1.31</v>
+      </c>
+      <c r="M76">
+        <v>4.350016</v>
+      </c>
+      <c r="N76">
+        <v>-3.040016</v>
+      </c>
+      <c r="O76">
+        <v>-0.6080032000000001</v>
+      </c>
+      <c r="P76">
+        <v>-2.4320128</v>
+      </c>
+      <c r="Q76">
+        <v>-2.4420128</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1278882822815209</v>
+      </c>
+      <c r="T76">
+        <v>2.195466327624247</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.0602296635230767</v>
+      </c>
+      <c r="W76">
+        <v>0.1726358108108108</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.3011483176153835</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1627454533931955</v>
+      </c>
+      <c r="C77">
+        <v>-16.15116935875883</v>
+      </c>
+      <c r="D77">
+        <v>7.122830641241168</v>
+      </c>
+      <c r="E77">
+        <v>5.300000000000001</v>
+      </c>
+      <c r="F77">
+        <v>24</v>
+      </c>
+      <c r="G77">
+        <v>0.726</v>
+      </c>
+      <c r="H77">
+        <v>13.3</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1.3</v>
+      </c>
+      <c r="K77">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L77">
+        <v>1.31</v>
+      </c>
+      <c r="M77">
+        <v>4.4088</v>
+      </c>
+      <c r="N77">
+        <v>-3.0988</v>
+      </c>
+      <c r="O77">
+        <v>-0.6197600000000001</v>
+      </c>
+      <c r="P77">
+        <v>-2.47904</v>
+      </c>
+      <c r="Q77">
+        <v>-2.48904</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1326318135727818</v>
+      </c>
+      <c r="T77">
+        <v>2.283284980729217</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.059426601342769</v>
+      </c>
+      <c r="W77">
+        <v>0.1727833333333333</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.297133006713845</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1644894533931955</v>
+      </c>
+      <c r="C78">
+        <v>-16.55121485390502</v>
+      </c>
+      <c r="D78">
+        <v>7.042785146094981</v>
+      </c>
+      <c r="E78">
+        <v>5.620000000000001</v>
+      </c>
+      <c r="F78">
+        <v>24.32</v>
+      </c>
+      <c r="G78">
+        <v>0.726</v>
+      </c>
+      <c r="H78">
+        <v>13.3</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1.3</v>
+      </c>
+      <c r="K78">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L78">
+        <v>1.31</v>
+      </c>
+      <c r="M78">
+        <v>4.467584</v>
+      </c>
+      <c r="N78">
+        <v>-3.157584</v>
+      </c>
+      <c r="O78">
+        <v>-0.6315168000000001</v>
+      </c>
+      <c r="P78">
+        <v>-2.5260672</v>
+      </c>
+      <c r="Q78">
+        <v>-2.536067200000001</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1377706391383144</v>
+      </c>
+      <c r="T78">
+        <v>2.378421854926269</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.05864467237773257</v>
+      </c>
+      <c r="W78">
+        <v>0.1729269736842105</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.2932233618886628</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1662334533931955</v>
+      </c>
+      <c r="C79">
+        <v>-16.94948125937317</v>
+      </c>
+      <c r="D79">
+        <v>6.964518740626827</v>
+      </c>
+      <c r="E79">
+        <v>5.940000000000001</v>
+      </c>
+      <c r="F79">
+        <v>24.64</v>
+      </c>
+      <c r="G79">
+        <v>0.726</v>
+      </c>
+      <c r="H79">
+        <v>13.3</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1.3</v>
+      </c>
+      <c r="K79">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L79">
+        <v>1.31</v>
+      </c>
+      <c r="M79">
+        <v>4.526368</v>
+      </c>
+      <c r="N79">
+        <v>-3.216368</v>
+      </c>
+      <c r="O79">
+        <v>-0.6432736</v>
+      </c>
+      <c r="P79">
+        <v>-2.5730944</v>
+      </c>
+      <c r="Q79">
+        <v>-2.583094399999999</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1433563191008498</v>
+      </c>
+      <c r="T79">
+        <v>2.481831500792628</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.05788305325594384</v>
+      </c>
+      <c r="W79">
+        <v>0.1730668831168831</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.2894152662797193</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1679774533931954</v>
+      </c>
+      <c r="C80">
+        <v>-17.34602723628368</v>
+      </c>
+      <c r="D80">
+        <v>6.887972763716322</v>
+      </c>
+      <c r="E80">
+        <v>6.260000000000002</v>
+      </c>
+      <c r="F80">
+        <v>24.96</v>
+      </c>
+      <c r="G80">
+        <v>0.726</v>
+      </c>
+      <c r="H80">
+        <v>13.3</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1.3</v>
+      </c>
+      <c r="K80">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L80">
+        <v>1.31</v>
+      </c>
+      <c r="M80">
+        <v>4.585152</v>
+      </c>
+      <c r="N80">
+        <v>-3.275152</v>
+      </c>
+      <c r="O80">
+        <v>-0.6550304</v>
+      </c>
+      <c r="P80">
+        <v>-2.6201216</v>
+      </c>
+      <c r="Q80">
+        <v>-2.6301216</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.1494497881508884</v>
+      </c>
+      <c r="T80">
+        <v>2.594642023555929</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.05714096282958558</v>
+      </c>
+      <c r="W80">
+        <v>0.1732032051282051</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.2857048141479279</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1697214533931955</v>
+      </c>
+      <c r="C81">
+        <v>-17.74090889485137</v>
+      </c>
+      <c r="D81">
+        <v>6.813091105148635</v>
+      </c>
+      <c r="E81">
+        <v>6.580000000000002</v>
+      </c>
+      <c r="F81">
+        <v>25.28</v>
+      </c>
+      <c r="G81">
+        <v>0.726</v>
+      </c>
+      <c r="H81">
+        <v>13.3</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1.3</v>
+      </c>
+      <c r="K81">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L81">
+        <v>1.31</v>
+      </c>
+      <c r="M81">
+        <v>4.643936</v>
+      </c>
+      <c r="N81">
+        <v>-3.333936</v>
+      </c>
+      <c r="O81">
+        <v>-0.6667872</v>
+      </c>
+      <c r="P81">
+        <v>-2.6671488</v>
+      </c>
+      <c r="Q81">
+        <v>-2.6771488</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.156123587586645</v>
+      </c>
+      <c r="T81">
+        <v>2.718196405630022</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.05641765950262881</v>
+      </c>
+      <c r="W81">
+        <v>0.1733360759493671</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.282088297513144</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1714654533931955</v>
+      </c>
+      <c r="C82">
+        <v>-18.13417993155343</v>
+      </c>
+      <c r="D82">
+        <v>6.739820068446573</v>
+      </c>
+      <c r="E82">
+        <v>6.900000000000002</v>
+      </c>
+      <c r="F82">
+        <v>25.6</v>
+      </c>
+      <c r="G82">
+        <v>0.726</v>
+      </c>
+      <c r="H82">
+        <v>13.3</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1.3</v>
+      </c>
+      <c r="K82">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L82">
+        <v>1.31</v>
+      </c>
+      <c r="M82">
+        <v>4.70272</v>
+      </c>
+      <c r="N82">
+        <v>-3.39272</v>
+      </c>
+      <c r="O82">
+        <v>-0.678544</v>
+      </c>
+      <c r="P82">
+        <v>-2.714176</v>
+      </c>
+      <c r="Q82">
+        <v>-2.724176</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.1634647669659773</v>
+      </c>
+      <c r="T82">
+        <v>2.854106225911523</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.05571243875884594</v>
+      </c>
+      <c r="W82">
+        <v>0.173465625</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.2785621937942298</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1732094533931955</v>
+      </c>
+      <c r="C83">
+        <v>-18.52589175754051</v>
+      </c>
+      <c r="D83">
+        <v>6.668108242459488</v>
+      </c>
+      <c r="E83">
+        <v>7.220000000000002</v>
+      </c>
+      <c r="F83">
+        <v>25.92</v>
+      </c>
+      <c r="G83">
+        <v>0.726</v>
+      </c>
+      <c r="H83">
+        <v>13.3</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1.3</v>
+      </c>
+      <c r="K83">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L83">
+        <v>1.31</v>
+      </c>
+      <c r="M83">
+        <v>4.761504</v>
+      </c>
+      <c r="N83">
+        <v>-3.451504</v>
+      </c>
+      <c r="O83">
+        <v>-0.6903008000000002</v>
+      </c>
+      <c r="P83">
+        <v>-2.7612032</v>
+      </c>
+      <c r="Q83">
+        <v>-2.7712032</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.1715787020694498</v>
+      </c>
+      <c r="T83">
+        <v>3.004322343064761</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.05502463087293427</v>
+      </c>
+      <c r="W83">
+        <v>0.173591975308642</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.2751231543646713</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1749534533931955</v>
+      </c>
+      <c r="C84">
+        <v>-18.91609361893634</v>
+      </c>
+      <c r="D84">
+        <v>6.597906381063661</v>
+      </c>
+      <c r="E84">
+        <v>7.540000000000003</v>
+      </c>
+      <c r="F84">
+        <v>26.24</v>
+      </c>
+      <c r="G84">
+        <v>0.726</v>
+      </c>
+      <c r="H84">
+        <v>13.3</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1.3</v>
+      </c>
+      <c r="K84">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L84">
+        <v>1.31</v>
+      </c>
+      <c r="M84">
+        <v>4.820288000000001</v>
+      </c>
+      <c r="N84">
+        <v>-3.510288000000001</v>
+      </c>
+      <c r="O84">
+        <v>-0.7020576000000002</v>
+      </c>
+      <c r="P84">
+        <v>-2.8082304</v>
+      </c>
+      <c r="Q84">
+        <v>-2.8182304</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.1805941855177525</v>
+      </c>
+      <c r="T84">
+        <v>3.171229139901692</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.05435359878911799</v>
+      </c>
+      <c r="W84">
+        <v>0.173715243902439</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.2717679939455899</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1766974533931955</v>
+      </c>
+      <c r="C85">
+        <v>-19.30483270961741</v>
+      </c>
+      <c r="D85">
+        <v>6.529167290382591</v>
+      </c>
+      <c r="E85">
+        <v>7.860000000000003</v>
+      </c>
+      <c r="F85">
+        <v>26.56</v>
+      </c>
+      <c r="G85">
+        <v>0.726</v>
+      </c>
+      <c r="H85">
+        <v>13.3</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1.3</v>
+      </c>
+      <c r="K85">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L85">
+        <v>1.31</v>
+      </c>
+      <c r="M85">
+        <v>4.879072000000001</v>
+      </c>
+      <c r="N85">
+        <v>-3.569072000000001</v>
+      </c>
+      <c r="O85">
+        <v>-0.7138144000000002</v>
+      </c>
+      <c r="P85">
+        <v>-2.855257600000001</v>
+      </c>
+      <c r="Q85">
+        <v>-2.865257600000001</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.1906703140776203</v>
+      </c>
+      <c r="T85">
+        <v>3.357772030484145</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.05369873615310453</v>
+      </c>
+      <c r="W85">
+        <v>0.1738355421686747</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.2684936807655226</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1784414533931954</v>
+      </c>
+      <c r="C86">
+        <v>-19.69215427701553</v>
+      </c>
+      <c r="D86">
+        <v>6.461845722984466</v>
+      </c>
+      <c r="E86">
+        <v>8.18</v>
+      </c>
+      <c r="F86">
+        <v>26.88</v>
+      </c>
+      <c r="G86">
+        <v>0.726</v>
+      </c>
+      <c r="H86">
+        <v>13.3</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1.3</v>
+      </c>
+      <c r="K86">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L86">
+        <v>1.31</v>
+      </c>
+      <c r="M86">
+        <v>4.937856</v>
+      </c>
+      <c r="N86">
+        <v>-3.627856</v>
+      </c>
+      <c r="O86">
+        <v>-0.7255712000000001</v>
+      </c>
+      <c r="P86">
+        <v>-2.9022848</v>
+      </c>
+      <c r="Q86">
+        <v>-2.9122848</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2020059587074715</v>
+      </c>
+      <c r="T86">
+        <v>3.567632782389402</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.05305946548461519</v>
+      </c>
+      <c r="W86">
+        <v>0.1739529761904762</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.265297327423076</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1801854533931955</v>
+      </c>
+      <c r="C87">
+        <v>-20.07810172144168</v>
+      </c>
+      <c r="D87">
+        <v>6.395898278558316</v>
+      </c>
+      <c r="E87">
+        <v>8.5</v>
+      </c>
+      <c r="F87">
+        <v>27.2</v>
+      </c>
+      <c r="G87">
+        <v>0.726</v>
+      </c>
+      <c r="H87">
+        <v>13.3</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1.3</v>
+      </c>
+      <c r="K87">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L87">
+        <v>1.31</v>
+      </c>
+      <c r="M87">
+        <v>4.99664</v>
+      </c>
+      <c r="N87">
+        <v>-3.68664</v>
+      </c>
+      <c r="O87">
+        <v>-0.7373280000000001</v>
+      </c>
+      <c r="P87">
+        <v>-2.949312</v>
+      </c>
+      <c r="Q87">
+        <v>-2.959312</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.2148530226213029</v>
+      </c>
+      <c r="T87">
+        <v>3.805474967882029</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.05243523647891383</v>
+      </c>
+      <c r="W87">
+        <v>0.1740676470588235</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.2621761823945692</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1819294533931955</v>
+      </c>
+      <c r="C88">
+        <v>-20.46271668938924</v>
+      </c>
+      <c r="D88">
+        <v>6.331283310610758</v>
+      </c>
+      <c r="E88">
+        <v>8.82</v>
+      </c>
+      <c r="F88">
+        <v>27.52</v>
+      </c>
+      <c r="G88">
+        <v>0.726</v>
+      </c>
+      <c r="H88">
+        <v>13.3</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1.3</v>
+      </c>
+      <c r="K88">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L88">
+        <v>1.31</v>
+      </c>
+      <c r="M88">
+        <v>5.055424</v>
+      </c>
+      <c r="N88">
+        <v>-3.745424</v>
+      </c>
+      <c r="O88">
+        <v>-0.7490848000000001</v>
+      </c>
+      <c r="P88">
+        <v>-2.9963392</v>
+      </c>
+      <c r="Q88">
+        <v>-3.0063392</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.2295353813799675</v>
+      </c>
+      <c r="T88">
+        <v>4.077294608445031</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.05182552442683344</v>
+      </c>
+      <c r="W88">
+        <v>0.1741796511627907</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.2591276221341672</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1836734533931954</v>
+      </c>
+      <c r="C89">
+        <v>-20.84603916123825</v>
+      </c>
+      <c r="D89">
+        <v>6.267960838761749</v>
+      </c>
+      <c r="E89">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="F89">
+        <v>27.84</v>
+      </c>
+      <c r="G89">
+        <v>0.726</v>
+      </c>
+      <c r="H89">
+        <v>13.3</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1.3</v>
+      </c>
+      <c r="K89">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L89">
+        <v>1.31</v>
+      </c>
+      <c r="M89">
+        <v>5.114208</v>
+      </c>
+      <c r="N89">
+        <v>-3.804208</v>
+      </c>
+      <c r="O89">
+        <v>-0.7608416</v>
+      </c>
+      <c r="P89">
+        <v>-3.0433664</v>
+      </c>
+      <c r="Q89">
+        <v>-3.0533664</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.2464765645630418</v>
+      </c>
+      <c r="T89">
+        <v>4.390932655248495</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.05122982874376639</v>
+      </c>
+      <c r="W89">
+        <v>0.1742890804597701</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.2561491437188319</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1854174533931955</v>
+      </c>
+      <c r="C90">
+        <v>-21.2281075337487</v>
+      </c>
+      <c r="D90">
+        <v>6.2058924662513</v>
+      </c>
+      <c r="E90">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="F90">
+        <v>28.16</v>
+      </c>
+      <c r="G90">
+        <v>0.726</v>
+      </c>
+      <c r="H90">
+        <v>13.3</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1.3</v>
+      </c>
+      <c r="K90">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L90">
+        <v>1.31</v>
+      </c>
+      <c r="M90">
+        <v>5.172992</v>
+      </c>
+      <c r="N90">
+        <v>-3.862992</v>
+      </c>
+      <c r="O90">
+        <v>-0.7725984</v>
+      </c>
+      <c r="P90">
+        <v>-3.0903936</v>
+      </c>
+      <c r="Q90">
+        <v>-3.100393599999999</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.2662412782766287</v>
+      </c>
+      <c r="T90">
+        <v>4.756843709852537</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.05064767159895087</v>
+      </c>
+      <c r="W90">
+        <v>0.1743960227272727</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.2532383579947544</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.1871614533931955</v>
+      </c>
+      <c r="C91">
+        <v>-21.60895869770054</v>
+      </c>
+      <c r="D91">
+        <v>6.145041302299457</v>
+      </c>
+      <c r="E91">
+        <v>9.780000000000001</v>
+      </c>
+      <c r="F91">
+        <v>28.48</v>
+      </c>
+      <c r="G91">
+        <v>0.726</v>
+      </c>
+      <c r="H91">
+        <v>13.3</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1.3</v>
+      </c>
+      <c r="K91">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L91">
+        <v>1.31</v>
+      </c>
+      <c r="M91">
+        <v>5.231776</v>
+      </c>
+      <c r="N91">
+        <v>-3.921776</v>
+      </c>
+      <c r="O91">
+        <v>-0.7843552</v>
+      </c>
+      <c r="P91">
+        <v>-3.1374208</v>
+      </c>
+      <c r="Q91">
+        <v>-3.1474208</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.2895995763017768</v>
+      </c>
+      <c r="T91">
+        <v>5.189284047111859</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.0500785966371649</v>
+      </c>
+      <c r="W91">
+        <v>0.1745005617977528</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.2503929831858245</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.1889054533931954</v>
+      </c>
+      <c r="C92">
+        <v>-21.98862811101033</v>
+      </c>
+      <c r="D92">
+        <v>6.085371888989674</v>
+      </c>
+      <c r="E92">
+        <v>10.1</v>
+      </c>
+      <c r="F92">
+        <v>28.8</v>
+      </c>
+      <c r="G92">
+        <v>0.726</v>
+      </c>
+      <c r="H92">
+        <v>13.3</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1.3</v>
+      </c>
+      <c r="K92">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L92">
+        <v>1.31</v>
+      </c>
+      <c r="M92">
+        <v>5.29056</v>
+      </c>
+      <c r="N92">
+        <v>-3.98056</v>
+      </c>
+      <c r="O92">
+        <v>-0.796112</v>
+      </c>
+      <c r="P92">
+        <v>-3.184448</v>
+      </c>
+      <c r="Q92">
+        <v>-3.194448</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.3176295339319545</v>
+      </c>
+      <c r="T92">
+        <v>5.708212451823045</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.04952216778564084</v>
+      </c>
+      <c r="W92">
+        <v>0.1746027777777778</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.2476108389282042</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.1906494533931955</v>
+      </c>
+      <c r="C93">
+        <v>-22.36714986762896</v>
+      </c>
+      <c r="D93">
+        <v>6.026850132371041</v>
+      </c>
+      <c r="E93">
+        <v>10.42</v>
+      </c>
+      <c r="F93">
+        <v>29.12</v>
+      </c>
+      <c r="G93">
+        <v>0.726</v>
+      </c>
+      <c r="H93">
+        <v>13.3</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1.3</v>
+      </c>
+      <c r="K93">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L93">
+        <v>1.31</v>
+      </c>
+      <c r="M93">
+        <v>5.349344</v>
+      </c>
+      <c r="N93">
+        <v>-4.039344</v>
+      </c>
+      <c r="O93">
+        <v>-0.8078688000000001</v>
+      </c>
+      <c r="P93">
+        <v>-3.2314752</v>
+      </c>
+      <c r="Q93">
+        <v>-3.2414752</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.351888371035505</v>
+      </c>
+      <c r="T93">
+        <v>6.342458279803385</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.04897796813964479</v>
+      </c>
+      <c r="W93">
+        <v>0.1747027472527473</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.2448898406982241</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.1923934533931954</v>
+      </c>
+      <c r="C94">
+        <v>-22.74455676250184</v>
+      </c>
+      <c r="D94">
+        <v>5.969443237498166</v>
+      </c>
+      <c r="E94">
+        <v>10.74</v>
+      </c>
+      <c r="F94">
+        <v>29.44</v>
+      </c>
+      <c r="G94">
+        <v>0.726</v>
+      </c>
+      <c r="H94">
+        <v>13.3</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1.3</v>
+      </c>
+      <c r="K94">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L94">
+        <v>1.31</v>
+      </c>
+      <c r="M94">
+        <v>5.408128</v>
+      </c>
+      <c r="N94">
+        <v>-4.098128000000001</v>
+      </c>
+      <c r="O94">
+        <v>-0.8196256000000002</v>
+      </c>
+      <c r="P94">
+        <v>-3.278502400000001</v>
+      </c>
+      <c r="Q94">
+        <v>-3.2885024</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.3947119174149432</v>
+      </c>
+      <c r="T94">
+        <v>7.135265564778808</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.04844559892073561</v>
+      </c>
+      <c r="W94">
+        <v>0.1748005434782609</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.2422279946036779</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.1941374533931955</v>
+      </c>
+      <c r="C95">
+        <v>-23.12088035285152</v>
+      </c>
+      <c r="D95">
+        <v>5.913119647148482</v>
+      </c>
+      <c r="E95">
+        <v>11.06</v>
+      </c>
+      <c r="F95">
+        <v>29.76</v>
+      </c>
+      <c r="G95">
+        <v>0.726</v>
+      </c>
+      <c r="H95">
+        <v>13.3</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1.3</v>
+      </c>
+      <c r="K95">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L95">
+        <v>1.31</v>
+      </c>
+      <c r="M95">
+        <v>5.466912000000001</v>
+      </c>
+      <c r="N95">
+        <v>-4.156912</v>
+      </c>
+      <c r="O95">
+        <v>-0.8313824000000001</v>
+      </c>
+      <c r="P95">
+        <v>-3.3255296</v>
+      </c>
+      <c r="Q95">
+        <v>-3.3355296</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.4497707627599352</v>
+      </c>
+      <c r="T95">
+        <v>8.154589216890068</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.04792467850223307</v>
+      </c>
+      <c r="W95">
+        <v>0.1748962365591398</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.2396233925111654</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.1958814533931955</v>
+      </c>
+      <c r="C96">
+        <v>-23.49615101602346</v>
+      </c>
+      <c r="D96">
+        <v>5.857848983976538</v>
+      </c>
+      <c r="E96">
+        <v>11.38</v>
+      </c>
+      <c r="F96">
+        <v>30.08</v>
+      </c>
+      <c r="G96">
+        <v>0.726</v>
+      </c>
+      <c r="H96">
+        <v>13.3</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1.3</v>
+      </c>
+      <c r="K96">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L96">
+        <v>1.31</v>
+      </c>
+      <c r="M96">
+        <v>5.525696000000001</v>
+      </c>
+      <c r="N96">
+        <v>-4.215696000000001</v>
+      </c>
+      <c r="O96">
+        <v>-0.8431392000000003</v>
+      </c>
+      <c r="P96">
+        <v>-3.372556800000001</v>
+      </c>
+      <c r="Q96">
+        <v>-3.382556800000001</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.5231825565532578</v>
+      </c>
+      <c r="T96">
+        <v>9.513687419705082</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.04741484149689016</v>
+      </c>
+      <c r="W96">
+        <v>0.1749898936170213</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.2370742074844507</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.1976254533931955</v>
+      </c>
+      <c r="C97">
+        <v>-23.87039800411766</v>
+      </c>
+      <c r="D97">
+        <v>5.803601995882343</v>
+      </c>
+      <c r="E97">
+        <v>11.7</v>
+      </c>
+      <c r="F97">
+        <v>30.4</v>
+      </c>
+      <c r="G97">
+        <v>0.726</v>
+      </c>
+      <c r="H97">
+        <v>13.3</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1.3</v>
+      </c>
+      <c r="K97">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L97">
+        <v>1.31</v>
+      </c>
+      <c r="M97">
+        <v>5.58448</v>
+      </c>
+      <c r="N97">
+        <v>-4.274480000000001</v>
+      </c>
+      <c r="O97">
+        <v>-0.8548960000000001</v>
+      </c>
+      <c r="P97">
+        <v>-3.419584</v>
+      </c>
+      <c r="Q97">
+        <v>-3.429584</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.6259590678639096</v>
+      </c>
+      <c r="T97">
+        <v>11.4164249036461</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.04691573790218606</v>
+      </c>
+      <c r="W97">
+        <v>0.1750815789473684</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.2345786895109302</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.1993694533931955</v>
+      </c>
+      <c r="C98">
+        <v>-24.24364949561261</v>
+      </c>
+      <c r="D98">
+        <v>5.750350504387386</v>
+      </c>
+      <c r="E98">
+        <v>12.02</v>
+      </c>
+      <c r="F98">
+        <v>30.72</v>
+      </c>
+      <c r="G98">
+        <v>0.726</v>
+      </c>
+      <c r="H98">
+        <v>13.3</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1.3</v>
+      </c>
+      <c r="K98">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L98">
+        <v>1.31</v>
+      </c>
+      <c r="M98">
+        <v>5.643264</v>
+      </c>
+      <c r="N98">
+        <v>-4.333264</v>
+      </c>
+      <c r="O98">
+        <v>-0.8666528</v>
+      </c>
+      <c r="P98">
+        <v>-3.4666112</v>
+      </c>
+      <c r="Q98">
+        <v>-3.4766112</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>0.7801238348298855</v>
+      </c>
+      <c r="T98">
+        <v>14.2705311295576</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.04642703229903829</v>
+      </c>
+      <c r="W98">
+        <v>0.1751713541666667</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.2321351614951915</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2011134533931954</v>
+      </c>
+      <c r="C99">
+        <v>-24.61593264417307</v>
+      </c>
+      <c r="D99">
+        <v>5.698067355826925</v>
+      </c>
+      <c r="E99">
+        <v>12.34</v>
+      </c>
+      <c r="F99">
+        <v>31.04</v>
+      </c>
+      <c r="G99">
+        <v>0.726</v>
+      </c>
+      <c r="H99">
+        <v>13.3</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1.3</v>
+      </c>
+      <c r="K99">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L99">
+        <v>1.31</v>
+      </c>
+      <c r="M99">
+        <v>5.702048</v>
+      </c>
+      <c r="N99">
+        <v>-4.392047999999999</v>
+      </c>
+      <c r="O99">
+        <v>-0.8784095999999999</v>
+      </c>
+      <c r="P99">
+        <v>-3.513638399999999</v>
+      </c>
+      <c r="Q99">
+        <v>-3.523638399999999</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.037065113106514</v>
+      </c>
+      <c r="T99">
+        <v>19.02737483941013</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.04594840310007914</v>
+      </c>
+      <c r="W99">
+        <v>0.1752592783505154</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.2297420155003957</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
         <v>0.98</v>
       </c>
-      <c r="V3">
-        <v>0.08521739130434783</v>
-      </c>
-      <c r="W3">
-        <v>-0.04618421052631579</v>
-      </c>
-      <c r="X3">
-        <v>0.1125544737015407</v>
-      </c>
-      <c r="Y3">
-        <v>-0.1587386842278565</v>
-      </c>
-      <c r="Z3">
-        <v>0.109112125709922</v>
-      </c>
-      <c r="AA3">
-        <v>-0.01158546658456604</v>
-      </c>
-      <c r="AB3">
-        <v>0.05737641758990867</v>
-      </c>
-      <c r="AC3">
-        <v>-0.06896188417447471</v>
-      </c>
-      <c r="AD3">
-        <v>21</v>
-      </c>
-      <c r="AE3">
-        <v>0.07454573761220082</v>
-      </c>
-      <c r="AF3">
-        <v>21.0745457376122</v>
-      </c>
-      <c r="AG3">
-        <v>20.0945457376122</v>
-      </c>
-      <c r="AH3">
-        <v>0.6469636110160234</v>
-      </c>
-      <c r="AI3">
-        <v>0.6077814514741343</v>
-      </c>
-      <c r="AJ3">
-        <v>0.6360131240529389</v>
-      </c>
-      <c r="AK3">
-        <v>0.596373843235443</v>
-      </c>
-      <c r="AL3">
-        <v>0.469</v>
-      </c>
-      <c r="AM3">
-        <v>0.469</v>
-      </c>
-      <c r="AN3">
-        <v>-88.60759493670886</v>
-      </c>
-      <c r="AO3">
-        <v>-0.7782515991471216</v>
-      </c>
-      <c r="AP3">
-        <v>-84.78711281692912</v>
-      </c>
-      <c r="AQ3">
-        <v>-0.7782515991471216</v>
+      <c r="B100">
+        <v>0.2028574533931954</v>
+      </c>
+      <c r="C100">
+        <v>-24.98727362481914</v>
+      </c>
+      <c r="D100">
+        <v>5.646726375180859</v>
+      </c>
+      <c r="E100">
+        <v>12.66</v>
+      </c>
+      <c r="F100">
+        <v>31.36</v>
+      </c>
+      <c r="G100">
+        <v>0.726</v>
+      </c>
+      <c r="H100">
+        <v>13.3</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1.3</v>
+      </c>
+      <c r="K100">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L100">
+        <v>1.31</v>
+      </c>
+      <c r="M100">
+        <v>5.760832</v>
+      </c>
+      <c r="N100">
+        <v>-4.450832</v>
+      </c>
+      <c r="O100">
+        <v>-0.8901664</v>
+      </c>
+      <c r="P100">
+        <v>-3.5606656</v>
+      </c>
+      <c r="Q100">
+        <v>-3.5706656</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>1.550947669659771</v>
+      </c>
+      <c r="T100">
+        <v>28.5410622591152</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.04547954184395588</v>
+      </c>
+      <c r="W100">
+        <v>0.1753454081632653</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.2273977092197793</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2046014533931955</v>
+      </c>
+      <c r="C101">
+        <v>-25.3576976776217</v>
+      </c>
+      <c r="D101">
+        <v>5.596302322378297</v>
+      </c>
+      <c r="E101">
+        <v>12.98</v>
+      </c>
+      <c r="F101">
+        <v>31.68</v>
+      </c>
+      <c r="G101">
+        <v>0.726</v>
+      </c>
+      <c r="H101">
+        <v>13.3</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1.3</v>
+      </c>
+      <c r="K101">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="L101">
+        <v>1.31</v>
+      </c>
+      <c r="M101">
+        <v>5.819616</v>
+      </c>
+      <c r="N101">
+        <v>-4.509615999999999</v>
+      </c>
+      <c r="O101">
+        <v>-0.9019231999999999</v>
+      </c>
+      <c r="P101">
+        <v>-3.6076928</v>
+      </c>
+      <c r="Q101">
+        <v>-3.617692799999999</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>3.092595339319542</v>
+      </c>
+      <c r="T101">
+        <v>57.08212451823039</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.04502015253240077</v>
+      </c>
+      <c r="W101">
+        <v>0.175429797979798</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.2251007626620039</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
